--- a/SEIR_2_wave/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/data/age_deaths_cases.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5130541F-5734-4476-AA86-506B4CB5A517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68FF669-6D8C-4671-A008-2D614BE8D414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_deaths_cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,9 +71,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -544,7 +554,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -601,6 +611,1231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>age_deaths_cases!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeathCasesRatio14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>age_deaths_cases!$M$2:$M$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="13">
+                  <c:v>0.13455934905712244</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14544052438789282</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17394054395951927</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16775086427638913</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16188667171160556</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16054697391744746</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16054983617363658</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15790527908840027</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.155130540376442</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15386598945106467</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15087653157398681</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15105702869596804</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15016651745747539</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14930573685181509</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15458343732679011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1586686195112145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15888942041861073</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15448169281978125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15798449500525574</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.15424807611274977</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15223129051885109</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.15690029591447119</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1549121369389056</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.15641922676386358</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.15708087830168513</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.159854199792511</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15428211586901763</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15484407126617936</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.15430767632699699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15800237301120176</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.15842879711499491</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.15494034671412563</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.15525186796292453</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15135583166971356</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15294610037485898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.15438345955042673</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1544678169150743</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.15102947700405975</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14893989219503317</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.15171969528687723</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.15281860037183218</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.15356185863185534</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.15367830984622616</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1538806295270666</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.15542181625416374</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.15294521955848422</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.1501902638161951</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.14964098772985282</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.14918856510992584</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14875104653504168</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.14967107878942099</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.14897760937385884</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.14652076403209055</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.14437654689882529</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.14470677431021992</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.1460759063342941</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.14660850094652128</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.14724931053422546</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.14888861779468462</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.15127306974962609</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.15030995107796286</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.15076211535092912</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.14937639612371184</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.14897628227278345</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14910677366817718</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14946242989152678</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.14947572695376971</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.15052182995427557</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.15059041643559715</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.15041160087859595</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.15103356829411563</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.1521452475352737</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.15263639302005627</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.15347622355487198</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.15423503439204539</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.15466620594333103</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.15577404645715362</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.15681844008764481</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.1582484536666833</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.15867712926716004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.15834516245390842</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.15904506920559128</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.15989913513309881</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.16011825548634165</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15956835961068602</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.16018450231985759</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16136392231469618</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.1617853133985388</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.16328250015768869</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.16330687512829012</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.16327251455677344</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.16326032424924683</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.16444690125040365</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.16405887501054986</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.16512175822283046</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.16383115999823236</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.16524989885916416</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.16492236735728699</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.16567137355913583</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.16600611851783473</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.16590064342791461</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.16594123922624532</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.16565766368004647</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.16709169039048191</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.16712400360260768</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.16709743422408108</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.1680546236988964</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.16795126669618848</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.1685368405758515</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.16897649450681212</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.16902337841875356</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.1694288403795145</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.16886879801392501</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.16918290844501468</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.1700268885332305</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.17019618911031342</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.1703656582647646</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.1705352961644413</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.17070510297736788</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.17087507887173603</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.17104522401590494</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.17121553857840141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0F8-4C5F-A688-89185D95F1C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="512602800"/>
+        <c:axId val="512603128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="512602800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512603128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512603128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512602800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A29260-ED4C-426A-AEEA-EF1FD7EA6CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,11 +2134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:M131"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132:C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,7 +2816,7 @@
         <v>0.13004638378285518</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M61" si="4">L3/G16</f>
+        <f t="shared" ref="M16:M51" si="4">L3/G16</f>
         <v>0.14544052438789282</v>
       </c>
     </row>
@@ -3905,7 +5140,7 @@
         <v>507</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G92" si="6">D67/F67</f>
+        <f t="shared" ref="G67:G91" si="6">D67/F67</f>
         <v>0.82840236686390534</v>
       </c>
       <c r="H67">
@@ -5153,7 +6388,7 @@
         <v>1170</v>
       </c>
       <c r="G94">
-        <f t="shared" ref="G64:G127" si="13">L81/M94</f>
+        <f t="shared" ref="G94:G127" si="13">L81/M94</f>
         <v>0.84953352500000001</v>
       </c>
       <c r="H94">
@@ -6480,10 +7715,10 @@
         <v>0.86536160600000001</v>
       </c>
       <c r="H121">
-        <v>5492</v>
+        <v>2553</v>
       </c>
       <c r="I121">
-        <v>823</v>
+        <v>488</v>
       </c>
       <c r="J121">
         <f t="shared" si="8"/>
@@ -6529,22 +7764,22 @@
         <v>0.86498007700000001</v>
       </c>
       <c r="H122">
-        <v>4339</v>
+        <v>5492</v>
       </c>
       <c r="I122">
-        <v>626</v>
+        <v>823</v>
       </c>
       <c r="J122">
         <f t="shared" si="8"/>
-        <v>150917</v>
+        <v>147978</v>
       </c>
       <c r="K122">
         <f t="shared" si="9"/>
-        <v>25638</v>
+        <v>25303</v>
       </c>
       <c r="L122">
         <f t="shared" si="7"/>
-        <v>0.1452125400016992</v>
+        <v>0.14602293384733467</v>
       </c>
       <c r="M122">
         <v>0.16795126669618848</v>
@@ -6578,22 +7813,22 @@
         <v>0.86295741999999986</v>
       </c>
       <c r="H123">
-        <v>1531</v>
+        <v>4339</v>
       </c>
       <c r="I123">
-        <v>205</v>
+        <v>626</v>
       </c>
       <c r="J123">
         <f t="shared" si="8"/>
-        <v>155256</v>
+        <v>153470</v>
       </c>
       <c r="K123">
         <f t="shared" si="9"/>
-        <v>26264</v>
+        <v>26126</v>
       </c>
       <c r="L123">
         <f t="shared" si="7"/>
-        <v>0.14468929043631557</v>
+        <v>0.14547094590079956</v>
       </c>
       <c r="M123">
         <v>0.1685368405758515</v>
@@ -6627,22 +7862,22 @@
         <v>0.860106492</v>
       </c>
       <c r="H124">
-        <v>1046</v>
+        <v>1531</v>
       </c>
       <c r="I124">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="J124">
         <f t="shared" si="8"/>
-        <v>156787</v>
+        <v>157809</v>
       </c>
       <c r="K124">
         <f t="shared" si="9"/>
-        <v>26469</v>
+        <v>26752</v>
       </c>
       <c r="L124">
         <f t="shared" si="7"/>
-        <v>0.1444372899113808</v>
+        <v>0.14494936633416594</v>
       </c>
       <c r="M124">
         <v>0.16897649450681212</v>
@@ -6676,22 +7911,22 @@
         <v>0.85847895200000013</v>
       </c>
       <c r="H125">
-        <v>549</v>
+        <v>1046</v>
       </c>
       <c r="I125">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <f t="shared" si="8"/>
-        <v>157833</v>
+        <v>159340</v>
       </c>
       <c r="K125">
         <f t="shared" si="9"/>
-        <v>26642</v>
+        <v>26957</v>
       </c>
       <c r="L125">
         <f t="shared" si="7"/>
-        <v>0.14442065320504133</v>
+        <v>0.14469905580873552</v>
       </c>
       <c r="M125">
         <v>0.16902337841875356</v>
@@ -6725,22 +7960,22 @@
         <v>0.85627443399999992</v>
       </c>
       <c r="H126">
-        <v>2558</v>
+        <v>549</v>
       </c>
       <c r="I126">
-        <v>431</v>
+        <v>87</v>
       </c>
       <c r="J126">
         <f t="shared" si="8"/>
-        <v>158382</v>
+        <v>160386</v>
       </c>
       <c r="K126">
         <f t="shared" si="9"/>
-        <v>26729</v>
+        <v>27130</v>
       </c>
       <c r="L126">
         <f t="shared" si="7"/>
-        <v>0.14439444441443242</v>
+        <v>0.14468098722242367</v>
       </c>
       <c r="M126">
         <v>0.1694288403795145</v>
@@ -6774,22 +8009,22 @@
         <v>0.85833842000000016</v>
       </c>
       <c r="H127">
-        <v>4269</v>
+        <v>2558</v>
       </c>
       <c r="I127">
-        <v>690</v>
+        <v>431</v>
       </c>
       <c r="J127">
         <f t="shared" si="8"/>
-        <v>160940</v>
+        <v>160935</v>
       </c>
       <c r="K127">
         <f t="shared" si="9"/>
-        <v>27160</v>
+        <v>27217</v>
       </c>
       <c r="L127">
         <f t="shared" si="7"/>
-        <v>0.14439128123338649</v>
+        <v>0.14465432203750159</v>
       </c>
       <c r="M127">
         <v>0.16886879801392501</v>
@@ -6819,32 +8054,32 @@
         <v>3284</v>
       </c>
       <c r="G128">
-        <f t="shared" ref="G128:G131" si="15">L115/M128</f>
+        <f t="shared" ref="G128:G136" si="15">L115/M128</f>
         <v>0.86018740900000001</v>
       </c>
       <c r="H128">
-        <v>1895</v>
+        <v>4269</v>
       </c>
       <c r="I128">
-        <v>242</v>
+        <v>690</v>
       </c>
       <c r="J128">
         <f t="shared" si="8"/>
-        <v>165209</v>
+        <v>163493</v>
       </c>
       <c r="K128">
         <f t="shared" si="9"/>
-        <v>27850</v>
+        <v>27648</v>
       </c>
       <c r="L128">
         <f t="shared" si="7"/>
-        <v>0.14425641902216421</v>
+        <v>0.14464714530111278</v>
       </c>
       <c r="M128">
         <v>0.16918290844501468</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44202</v>
       </c>
@@ -6872,127 +8107,389 @@
         <v>0.8601874089999999</v>
       </c>
       <c r="H129">
-        <v>2555</v>
+        <v>1895</v>
       </c>
       <c r="I129">
-        <v>425</v>
+        <v>242</v>
       </c>
       <c r="J129">
         <f t="shared" si="8"/>
-        <v>167104</v>
+        <v>167762</v>
       </c>
       <c r="K129">
         <f t="shared" si="9"/>
-        <v>28092</v>
+        <v>28338</v>
       </c>
       <c r="L129">
         <f t="shared" si="7"/>
-        <v>0.14391688354269555</v>
+        <v>0.14450790413054565</v>
       </c>
       <c r="M129">
         <v>0.1700268885332305</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N129">
+        <f>(M129/M128)^0.2</f>
+        <v>1.0009957282553568</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44203</v>
       </c>
       <c r="B130">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C130">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D130">
         <f t="shared" si="12"/>
-        <v>2947</v>
+        <v>2932</v>
       </c>
       <c r="E130">
         <f t="shared" si="14"/>
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="F130">
         <v>3426</v>
       </c>
       <c r="G130">
         <f t="shared" si="15"/>
-        <v>0.86018740900000001</v>
+        <v>0.85568755037345301</v>
       </c>
       <c r="H130">
-        <v>175</v>
+        <v>2555</v>
       </c>
       <c r="I130">
-        <v>1044</v>
+        <v>425</v>
       </c>
       <c r="J130">
         <f t="shared" si="8"/>
-        <v>169659</v>
+        <v>169657</v>
       </c>
       <c r="K130">
         <f t="shared" si="9"/>
-        <v>28517</v>
+        <v>28580</v>
       </c>
       <c r="L130">
         <f t="shared" si="7"/>
-        <v>0.14389734377523009</v>
+        <v>0.14417086618542452</v>
       </c>
       <c r="M130">
-        <v>0.16930584965432927</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+        <f>M129*$N$129</f>
+        <v>0.17019618911031342</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44204</v>
       </c>
       <c r="B131">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C131">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D131">
         <f t="shared" si="12"/>
-        <v>2998</v>
+        <v>2973</v>
       </c>
       <c r="E131">
         <f t="shared" si="14"/>
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="F131">
-        <v>3485</v>
+        <v>3480</v>
       </c>
       <c r="G131">
         <f t="shared" si="15"/>
-        <v>0.86018740900000001</v>
+        <v>0.85421645009286862</v>
       </c>
       <c r="H131">
-        <v>175</v>
+        <v>3514</v>
       </c>
       <c r="I131">
-        <v>1044</v>
+        <v>558</v>
       </c>
       <c r="J131">
         <f t="shared" si="8"/>
-        <v>169834</v>
+        <v>172212</v>
       </c>
       <c r="K131">
         <f t="shared" si="9"/>
-        <v>29561</v>
+        <v>29005</v>
       </c>
       <c r="L131">
         <f t="shared" ref="L131" si="16">K131/(K131+J131)</f>
-        <v>0.14825346673687906</v>
+        <v>0.1441478602702555</v>
       </c>
       <c r="M131">
-        <v>0.16918307138422903</v>
+        <f>M130*$N$129</f>
+        <v>0.1703656582647646</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <f>A131+1</f>
+        <v>44205</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132:B136" si="17">D132-D131</f>
+        <v>76</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:C136" si="18">E132-E131</f>
+        <v>16</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ref="D132:D136" si="19">ROUND(G132*F132,0)</f>
+        <v>3049</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132:E136" si="20">F132-D132</f>
+        <v>523</v>
+      </c>
+      <c r="F132">
+        <v>3572</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="15"/>
+        <v>0.85363993286704232</v>
+      </c>
+      <c r="H132">
+        <v>2351</v>
+      </c>
+      <c r="I132">
+        <v>622</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:J136" si="21">H131+J131</f>
+        <v>175726</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ref="K132:K136" si="22">I131+K131</f>
+        <v>29563</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ref="L132:L136" si="23">K132/(K132+J132)</f>
+        <v>0.14400674171533789</v>
+      </c>
+      <c r="M132">
+        <f>M131*$N$129</f>
+        <v>0.1705352961644413</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <f>A132+1</f>
+        <v>44206</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="17"/>
+        <v>85</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="19"/>
+        <v>3134</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="20"/>
+        <v>536</v>
+      </c>
+      <c r="F133">
+        <v>3670</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="15"/>
+        <v>0.85391147515168786</v>
+      </c>
+      <c r="H133">
+        <v>732</v>
+      </c>
+      <c r="I133">
+        <v>128</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="21"/>
+        <v>178077</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="22"/>
+        <v>30185</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="23"/>
+        <v>0.14493762664336268</v>
+      </c>
+      <c r="M133">
+        <f>M132*$N$129</f>
+        <v>0.17070510297736788</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <f>A133+1</f>
+        <v>44207</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="17"/>
+        <v>82</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="19"/>
+        <v>3216</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="20"/>
+        <v>554</v>
+      </c>
+      <c r="F134">
+        <v>3770</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="15"/>
+        <v>0.85304892670156074</v>
+      </c>
+      <c r="H134">
+        <v>2037</v>
+      </c>
+      <c r="I134">
+        <v>373</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="21"/>
+        <v>178809</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="22"/>
+        <v>30313</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="23"/>
+        <v>0.14495366341178834</v>
+      </c>
+      <c r="M134">
+        <f>M133*$N$129</f>
+        <v>0.17087507887173603</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <f>A134+1</f>
+        <v>44208</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="17"/>
+        <v>61</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="19"/>
+        <v>3277</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="20"/>
+        <v>562</v>
+      </c>
+      <c r="F135">
+        <v>3839</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="15"/>
+        <v>0.85370950687144864</v>
+      </c>
+      <c r="H135">
+        <v>3073</v>
+      </c>
+      <c r="I135">
+        <v>503</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="21"/>
+        <v>180846</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="22"/>
+        <v>30686</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="23"/>
+        <v>0.14506552200139933</v>
+      </c>
+      <c r="M135">
+        <f>M134*$N$129</f>
+        <v>0.17104522401590494</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <f>A135+1</f>
+        <v>44209</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="19"/>
+        <v>3353</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="20"/>
+        <v>593</v>
+      </c>
+      <c r="F136">
+        <v>3946</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="15"/>
+        <v>0.84963635373659074</v>
+      </c>
+      <c r="H136">
+        <v>2466</v>
+      </c>
+      <c r="I136">
+        <v>457</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="21"/>
+        <v>183919</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="22"/>
+        <v>31189</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="23"/>
+        <v>0.14499228294624095</v>
+      </c>
+      <c r="M136">
+        <f>M135*$N$129</f>
+        <v>0.17121553857840141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SEIR_2_wave/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/data/age_deaths_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68FF669-6D8C-4671-A008-2D614BE8D414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D53E63-D435-48B2-BBAD-876478FA989B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2137,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132:C136"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="O100" sqref="O1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5125,7 +5125,7 @@
         <v>44140</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -5171,7 +5171,7 @@
         <v>44141</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5217,7 +5217,7 @@
         <v>44142</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5263,10 +5263,10 @@
         <v>44143</v>
       </c>
       <c r="B70">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <v>469</v>
@@ -5309,7 +5309,7 @@
         <v>44144</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -5358,7 +5358,7 @@
         <v>18</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72">
         <v>507</v>
@@ -5401,7 +5401,7 @@
         <v>44146</v>
       </c>
       <c r="B73">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5447,7 +5447,7 @@
         <v>44147</v>
       </c>
       <c r="B74">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -5493,7 +5493,7 @@
         <v>44148</v>
       </c>
       <c r="B75">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -5539,7 +5539,7 @@
         <v>44149</v>
       </c>
       <c r="B76">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -5585,7 +5585,7 @@
         <v>44150</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5677,7 +5677,7 @@
         <v>44152</v>
       </c>
       <c r="B79">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -5723,7 +5723,7 @@
         <v>44153</v>
       </c>
       <c r="B80">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>44154</v>
       </c>
       <c r="B81">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -5815,7 +5815,7 @@
         <v>44155</v>
       </c>
       <c r="B82">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -5861,7 +5861,7 @@
         <v>44156</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -5907,10 +5907,10 @@
         <v>44157</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84">
         <v>770</v>
@@ -5953,7 +5953,7 @@
         <v>44158</v>
       </c>
       <c r="B85">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -5999,7 +5999,7 @@
         <v>44159</v>
       </c>
       <c r="B86">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -6045,7 +6045,7 @@
         <v>44160</v>
       </c>
       <c r="B87">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -6091,7 +6091,7 @@
         <v>44161</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -6137,10 +6137,10 @@
         <v>44162</v>
       </c>
       <c r="B89">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89">
         <v>878</v>
@@ -6183,7 +6183,7 @@
         <v>44163</v>
       </c>
       <c r="B90">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -6229,7 +6229,7 @@
         <v>44164</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -6275,7 +6275,7 @@
         <v>44165</v>
       </c>
       <c r="B92">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -6321,12 +6321,10 @@
         <v>44166</v>
       </c>
       <c r="B93">
-        <f>D93-D92</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <f>E93-E92</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93">
         <f>ROUND(G93*F93,0)</f>
@@ -6369,15 +6367,13 @@
         <v>44167</v>
       </c>
       <c r="B94">
-        <f t="shared" ref="B94:B131" si="10">D94-D93</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:C131" si="11">E94-E93</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <f t="shared" ref="D94:D131" si="12">ROUND(G94*F94,0)</f>
+        <f t="shared" ref="D94:D131" si="10">ROUND(G94*F94,0)</f>
         <v>994</v>
       </c>
       <c r="E94">
@@ -6388,7 +6384,7 @@
         <v>1170</v>
       </c>
       <c r="G94">
-        <f t="shared" ref="G94:G127" si="13">L81/M94</f>
+        <f t="shared" ref="G94:G127" si="11">L81/M94</f>
         <v>0.84953352500000001</v>
       </c>
       <c r="H94">
@@ -6418,26 +6414,24 @@
         <v>44168</v>
       </c>
       <c r="B95">
+        <v>29</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="10"/>
-        <v>38</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="12"/>
         <v>1032</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95:E131" si="14">F95-D95</f>
+        <f t="shared" ref="E95:E131" si="12">F95-D95</f>
         <v>176</v>
       </c>
       <c r="F95">
         <v>1208</v>
       </c>
       <c r="G95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.85428341100000005</v>
       </c>
       <c r="H95">
@@ -6467,26 +6461,24 @@
         <v>44169</v>
       </c>
       <c r="B96">
+        <v>24</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D96">
+        <v>1057</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="12"/>
-        <v>1057</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="14"/>
         <v>177</v>
       </c>
       <c r="F96">
         <v>1234</v>
       </c>
       <c r="G96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.85654429700000001</v>
       </c>
       <c r="H96">
@@ -6516,26 +6508,24 @@
         <v>44170</v>
       </c>
       <c r="B97">
+        <v>28</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="D97">
+        <v>1069</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="12"/>
-        <v>1069</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="F97">
         <v>1249</v>
       </c>
       <c r="G97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.85560303599999987</v>
       </c>
       <c r="H97">
@@ -6565,26 +6555,24 @@
         <v>44171</v>
       </c>
       <c r="B98">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="D98">
+        <v>1089</v>
+      </c>
+      <c r="E98">
         <f t="shared" si="12"/>
-        <v>1089</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="14"/>
         <v>185</v>
       </c>
       <c r="F98">
         <v>1274</v>
       </c>
       <c r="G98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.85497544599999997</v>
       </c>
       <c r="H98">
@@ -6614,26 +6602,24 @@
         <v>44172</v>
       </c>
       <c r="B99">
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="10"/>
-        <v>41</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D99">
+        <v>1130</v>
+      </c>
+      <c r="E99">
         <f t="shared" si="12"/>
-        <v>1130</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="14"/>
         <v>186</v>
       </c>
       <c r="F99">
         <v>1316</v>
       </c>
       <c r="G99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.85870741100000003</v>
       </c>
       <c r="H99">
@@ -6663,26 +6649,24 @@
         <v>44173</v>
       </c>
       <c r="B100">
+        <v>30</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D100">
+        <v>1172</v>
+      </c>
+      <c r="E100">
         <f t="shared" si="12"/>
-        <v>1172</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="14"/>
         <v>186</v>
       </c>
       <c r="F100">
         <v>1358</v>
       </c>
       <c r="G100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.863123482</v>
       </c>
       <c r="H100">
@@ -6712,26 +6696,24 @@
         <v>44174</v>
       </c>
       <c r="B101">
+        <v>36</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
         <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D101">
+        <v>1197</v>
+      </c>
+      <c r="E101">
         <f t="shared" si="12"/>
-        <v>1197</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="14"/>
         <v>187</v>
       </c>
       <c r="F101">
         <v>1384</v>
       </c>
       <c r="G101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86519398300000006</v>
       </c>
       <c r="H101">
@@ -6761,26 +6743,24 @@
         <v>44175</v>
       </c>
       <c r="B102">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
         <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D102">
+        <v>1225</v>
+      </c>
+      <c r="E102">
         <f t="shared" si="12"/>
-        <v>1225</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="14"/>
         <v>187</v>
       </c>
       <c r="F102">
         <v>1412</v>
       </c>
       <c r="G102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86742584199999995</v>
       </c>
       <c r="H102">
@@ -6810,26 +6790,24 @@
         <v>44176</v>
       </c>
       <c r="B103">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
         <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="D103">
+        <v>1247</v>
+      </c>
+      <c r="E103">
         <f t="shared" si="12"/>
-        <v>1247</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="14"/>
         <v>194</v>
       </c>
       <c r="F103">
         <v>1441</v>
       </c>
       <c r="G103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86571466699999999</v>
       </c>
       <c r="H103">
@@ -6859,26 +6837,25 @@
         <v>44177</v>
       </c>
       <c r="B104">
+        <f t="shared" ref="B104:B131" si="13">D104-D103</f>
+        <v>32</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
         <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="D104">
+        <v>1279</v>
+      </c>
+      <c r="E104">
         <f t="shared" si="12"/>
-        <v>1279</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="14"/>
         <v>199</v>
       </c>
       <c r="F104">
         <v>1478</v>
       </c>
       <c r="G104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86532545100000002</v>
       </c>
       <c r="H104">
@@ -6908,26 +6885,26 @@
         <v>44178</v>
       </c>
       <c r="B105">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ref="C105:C131" si="14">E105-E104</f>
+        <v>3</v>
+      </c>
+      <c r="D105">
         <f t="shared" si="10"/>
-        <v>37</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="D105">
+        <v>1316</v>
+      </c>
+      <c r="E105">
         <f t="shared" si="12"/>
-        <v>1316</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="14"/>
         <v>202</v>
       </c>
       <c r="F105">
         <v>1518</v>
       </c>
       <c r="G105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86662305699999997</v>
       </c>
       <c r="H105">
@@ -6957,26 +6934,24 @@
         <v>44179</v>
       </c>
       <c r="B106">
+        <v>33</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
         <f t="shared" si="10"/>
-        <v>62</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="D106">
+        <v>1378</v>
+      </c>
+      <c r="E106">
         <f t="shared" si="12"/>
-        <v>1378</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="14"/>
         <v>207</v>
       </c>
       <c r="F106">
         <v>1585</v>
       </c>
       <c r="G106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.8694045829999999</v>
       </c>
       <c r="H106">
@@ -7006,26 +6981,24 @@
         <v>44180</v>
       </c>
       <c r="B107">
+        <v>36</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
         <f t="shared" si="10"/>
-        <v>61</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="D107">
+        <v>1439</v>
+      </c>
+      <c r="E107">
         <f t="shared" si="12"/>
-        <v>1439</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="14"/>
         <v>220</v>
       </c>
       <c r="F107">
         <v>1659</v>
       </c>
       <c r="G107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86725018300000001</v>
       </c>
       <c r="H107">
@@ -7055,26 +7028,24 @@
         <v>44181</v>
       </c>
       <c r="B108">
+        <v>28</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
         <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="D108">
+        <v>1514</v>
+      </c>
+      <c r="E108">
         <f t="shared" si="12"/>
-        <v>1514</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="14"/>
         <v>229</v>
       </c>
       <c r="F108">
         <v>1743</v>
       </c>
       <c r="G108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86855268200000013</v>
       </c>
       <c r="H108">
@@ -7104,26 +7075,24 @@
         <v>44182</v>
       </c>
       <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
         <f t="shared" si="10"/>
-        <v>61</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="D109">
+        <v>1575</v>
+      </c>
+      <c r="E109">
         <f t="shared" si="12"/>
-        <v>1575</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="14"/>
         <v>244</v>
       </c>
       <c r="F109">
         <v>1819</v>
       </c>
       <c r="G109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86562001399999999</v>
       </c>
       <c r="H109">
@@ -7153,26 +7122,24 @@
         <v>44183</v>
       </c>
       <c r="B110">
+        <v>28</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110">
         <f t="shared" si="10"/>
-        <v>77</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D110">
+        <v>1652</v>
+      </c>
+      <c r="E110">
         <f t="shared" si="12"/>
-        <v>1652</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="14"/>
         <v>245</v>
       </c>
       <c r="F110">
         <v>1897</v>
       </c>
       <c r="G110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.87091349699999998</v>
       </c>
       <c r="H110">
@@ -7202,26 +7169,24 @@
         <v>44184</v>
       </c>
       <c r="B111">
+        <v>34</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111">
         <f t="shared" si="10"/>
-        <v>44</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="D111">
+        <v>1696</v>
+      </c>
+      <c r="E111">
         <f t="shared" si="12"/>
-        <v>1696</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="14"/>
         <v>253</v>
       </c>
       <c r="F111">
         <v>1949</v>
       </c>
       <c r="G111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.87011744700000004</v>
       </c>
       <c r="H111">
@@ -7251,26 +7216,24 @@
         <v>44185</v>
       </c>
       <c r="B112">
+        <v>32</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112">
         <f t="shared" si="10"/>
-        <v>62</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="D112">
+        <v>1758</v>
+      </c>
+      <c r="E112">
         <f t="shared" si="12"/>
-        <v>1758</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="14"/>
         <v>257</v>
       </c>
       <c r="F112">
         <v>2015</v>
       </c>
       <c r="G112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.87254980500000001</v>
       </c>
       <c r="H112">
@@ -7300,26 +7263,24 @@
         <v>44186</v>
       </c>
       <c r="B113">
+        <v>34</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D113">
+        <v>1758</v>
+      </c>
+      <c r="E113">
         <f t="shared" si="12"/>
-        <v>1758</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="14"/>
         <v>257</v>
       </c>
       <c r="F113">
         <v>2015</v>
       </c>
       <c r="G113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.87242709299999988</v>
       </c>
       <c r="H113">
@@ -7349,26 +7310,24 @@
         <v>44187</v>
       </c>
       <c r="B114">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+      <c r="D114">
         <f t="shared" si="10"/>
-        <v>73</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="D114">
+        <v>1831</v>
+      </c>
+      <c r="E114">
         <f t="shared" si="12"/>
-        <v>1831</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="14"/>
         <v>275</v>
       </c>
       <c r="F114">
         <v>2106</v>
       </c>
       <c r="G114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86930386500000001</v>
       </c>
       <c r="H114">
@@ -7398,26 +7357,24 @@
         <v>44188</v>
       </c>
       <c r="B115">
+        <v>48</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115">
         <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="D115">
+        <v>1876</v>
+      </c>
+      <c r="E115">
         <f t="shared" si="12"/>
-        <v>1876</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="14"/>
         <v>285</v>
       </c>
       <c r="F115">
         <v>2161</v>
       </c>
       <c r="G115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86812174799999986</v>
       </c>
       <c r="H115">
@@ -7447,26 +7404,24 @@
         <v>44189</v>
       </c>
       <c r="B116">
+        <v>46</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D116">
+        <v>1876</v>
+      </c>
+      <c r="E116">
         <f t="shared" si="12"/>
-        <v>1876</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="14"/>
         <v>285</v>
       </c>
       <c r="F116">
         <v>2161</v>
       </c>
       <c r="G116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86814865900000004</v>
       </c>
       <c r="H116">
@@ -7496,26 +7451,24 @@
         <v>44190</v>
       </c>
       <c r="B117">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C117">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <f>D116</f>
         <v>1876</v>
       </c>
       <c r="E117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
       <c r="F117">
         <v>2161</v>
       </c>
       <c r="G117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86838745399999995</v>
       </c>
       <c r="H117">
@@ -7545,26 +7498,24 @@
         <v>44191</v>
       </c>
       <c r="B118">
+        <v>46</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118">
         <f t="shared" si="10"/>
-        <v>58</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="D118">
+        <v>1934</v>
+      </c>
+      <c r="E118">
         <f t="shared" si="12"/>
-        <v>1934</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="14"/>
         <v>297</v>
       </c>
       <c r="F118">
         <v>2231</v>
       </c>
       <c r="G118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86673593299999996</v>
       </c>
       <c r="H118">
@@ -7594,26 +7545,24 @@
         <v>44192</v>
       </c>
       <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+      <c r="D119">
         <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="D119">
+        <v>2059</v>
+      </c>
+      <c r="E119">
         <f t="shared" si="12"/>
-        <v>2059</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="14"/>
         <v>318</v>
       </c>
       <c r="F119">
         <v>2377</v>
       </c>
       <c r="G119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86642782299999999</v>
       </c>
       <c r="H119">
@@ -7643,26 +7592,24 @@
         <v>44193</v>
       </c>
       <c r="B120">
+        <v>44</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
         <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="D120">
+        <v>2155</v>
+      </c>
+      <c r="E120">
         <f t="shared" si="12"/>
-        <v>2155</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="14"/>
         <v>329</v>
       </c>
       <c r="F120">
         <v>2484</v>
       </c>
       <c r="G120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86769009500000005</v>
       </c>
       <c r="H120">
@@ -7692,26 +7639,24 @@
         <v>44194</v>
       </c>
       <c r="B121">
+        <v>38</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121">
         <f t="shared" si="10"/>
-        <v>71</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="D121">
+        <v>2226</v>
+      </c>
+      <c r="E121">
         <f t="shared" si="12"/>
-        <v>2226</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="14"/>
         <v>346</v>
       </c>
       <c r="F121">
         <v>2572</v>
       </c>
       <c r="G121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86536160600000001</v>
       </c>
       <c r="H121">
@@ -7741,26 +7686,24 @@
         <v>44195</v>
       </c>
       <c r="B122">
+        <v>35</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122">
         <f t="shared" si="10"/>
-        <v>83</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="D122">
+        <v>2309</v>
+      </c>
+      <c r="E122">
         <f t="shared" si="12"/>
-        <v>2309</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="14"/>
         <v>360</v>
       </c>
       <c r="F122">
         <v>2669</v>
       </c>
       <c r="G122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86498007700000001</v>
       </c>
       <c r="H122">
@@ -7790,26 +7733,25 @@
         <v>44196</v>
       </c>
       <c r="B123">
+        <f t="shared" si="13"/>
+        <v>124</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
         <f t="shared" si="10"/>
-        <v>124</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="D123">
+        <v>2433</v>
+      </c>
+      <c r="E123">
         <f t="shared" si="12"/>
-        <v>2433</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="14"/>
         <v>386</v>
       </c>
       <c r="F123">
         <v>2819</v>
       </c>
       <c r="G123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.86295741999999986</v>
       </c>
       <c r="H123">
@@ -7839,11 +7781,11 @@
         <v>44197</v>
       </c>
       <c r="B124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D124">
@@ -7851,14 +7793,14 @@
         <v>2433</v>
       </c>
       <c r="E124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>386</v>
       </c>
       <c r="F124">
         <v>2819</v>
       </c>
       <c r="G124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.860106492</v>
       </c>
       <c r="H124">
@@ -7888,26 +7830,26 @@
         <v>44198</v>
       </c>
       <c r="B125">
+        <f t="shared" si="13"/>
+        <v>63</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="D125">
         <f t="shared" si="10"/>
-        <v>63</v>
-      </c>
-      <c r="C125">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="D125">
+        <v>2496</v>
+      </c>
+      <c r="E125">
         <f t="shared" si="12"/>
-        <v>2496</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="14"/>
         <v>412</v>
       </c>
       <c r="F125">
         <v>2908</v>
       </c>
       <c r="G125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.85847895200000013</v>
       </c>
       <c r="H125">
@@ -7937,26 +7879,26 @@
         <v>44199</v>
       </c>
       <c r="B126">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="D126">
         <f t="shared" si="10"/>
-        <v>185</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="11"/>
-        <v>38</v>
-      </c>
-      <c r="D126">
+        <v>2681</v>
+      </c>
+      <c r="E126">
         <f t="shared" si="12"/>
-        <v>2681</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="14"/>
         <v>450</v>
       </c>
       <c r="F126">
         <v>3131</v>
       </c>
       <c r="G126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.85627443399999992</v>
       </c>
       <c r="H126">
@@ -7986,26 +7928,26 @@
         <v>44200</v>
       </c>
       <c r="B127">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="D127">
         <f t="shared" si="10"/>
-        <v>87</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="D127">
+        <v>2768</v>
+      </c>
+      <c r="E127">
         <f t="shared" si="12"/>
-        <v>2768</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="14"/>
         <v>457</v>
       </c>
       <c r="F127">
         <v>3225</v>
       </c>
       <c r="G127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.85833842000000016</v>
       </c>
       <c r="H127">
@@ -8035,19 +7977,19 @@
         <v>44201</v>
       </c>
       <c r="B128">
+        <f t="shared" si="13"/>
+        <v>57</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D128">
         <f t="shared" si="10"/>
-        <v>57</v>
-      </c>
-      <c r="C128">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D128">
+        <v>2825</v>
+      </c>
+      <c r="E128">
         <f t="shared" si="12"/>
-        <v>2825</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="14"/>
         <v>459</v>
       </c>
       <c r="F128">
@@ -8084,19 +8026,19 @@
         <v>44202</v>
       </c>
       <c r="B129">
+        <f t="shared" si="13"/>
+        <v>56</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="D129">
         <f t="shared" si="10"/>
-        <v>56</v>
-      </c>
-      <c r="C129">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="D129">
+        <v>2881</v>
+      </c>
+      <c r="E129">
         <f t="shared" si="12"/>
-        <v>2881</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="14"/>
         <v>468</v>
       </c>
       <c r="F129">
@@ -8137,19 +8079,19 @@
         <v>44203</v>
       </c>
       <c r="B130">
+        <f t="shared" si="13"/>
+        <v>51</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="D130">
         <f t="shared" si="10"/>
-        <v>51</v>
-      </c>
-      <c r="C130">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="D130">
+        <v>2932</v>
+      </c>
+      <c r="E130">
         <f t="shared" si="12"/>
-        <v>2932</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="14"/>
         <v>494</v>
       </c>
       <c r="F130">
@@ -8178,7 +8120,7 @@
         <v>0.14417086618542452</v>
       </c>
       <c r="M130">
-        <f>M129*$N$129</f>
+        <f t="shared" ref="M130:M136" si="16">M129*$N$129</f>
         <v>0.17019618911031342</v>
       </c>
     </row>
@@ -8187,19 +8129,19 @@
         <v>44204</v>
       </c>
       <c r="B131">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="D131">
         <f t="shared" si="10"/>
-        <v>41</v>
-      </c>
-      <c r="C131">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="D131">
+        <v>2973</v>
+      </c>
+      <c r="E131">
         <f t="shared" si="12"/>
-        <v>2973</v>
-      </c>
-      <c r="E131">
-        <f t="shared" si="14"/>
         <v>507</v>
       </c>
       <c r="F131">
@@ -8224,11 +8166,11 @@
         <v>29005</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131" si="16">K131/(K131+J131)</f>
+        <f t="shared" ref="L131" si="17">K131/(K131+J131)</f>
         <v>0.1441478602702555</v>
       </c>
       <c r="M131">
-        <f>M130*$N$129</f>
+        <f t="shared" si="16"/>
         <v>0.1703656582647646</v>
       </c>
     </row>
@@ -8238,19 +8180,19 @@
         <v>44205</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B136" si="17">D132-D131</f>
+        <f t="shared" ref="B132:B136" si="18">D132-D131</f>
         <v>76</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:C136" si="18">E132-E131</f>
+        <f t="shared" ref="C132:C136" si="19">E132-E131</f>
         <v>16</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D136" si="19">ROUND(G132*F132,0)</f>
+        <f t="shared" ref="D132:D136" si="20">ROUND(G132*F132,0)</f>
         <v>3049</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E136" si="20">F132-D132</f>
+        <f t="shared" ref="E132:E136" si="21">F132-D132</f>
         <v>523</v>
       </c>
       <c r="F132">
@@ -8267,19 +8209,19 @@
         <v>622</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J132:J136" si="21">H131+J131</f>
+        <f t="shared" ref="J132:J136" si="22">H131+J131</f>
         <v>175726</v>
       </c>
       <c r="K132">
-        <f t="shared" ref="K132:K136" si="22">I131+K131</f>
+        <f t="shared" ref="K132:K136" si="23">I131+K131</f>
         <v>29563</v>
       </c>
       <c r="L132">
-        <f t="shared" ref="L132:L136" si="23">K132/(K132+J132)</f>
+        <f t="shared" ref="L132:L136" si="24">K132/(K132+J132)</f>
         <v>0.14400674171533789</v>
       </c>
       <c r="M132">
-        <f>M131*$N$129</f>
+        <f t="shared" si="16"/>
         <v>0.1705352961644413</v>
       </c>
     </row>
@@ -8289,19 +8231,19 @@
         <v>44206</v>
       </c>
       <c r="B133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="C133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="D133">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3134</v>
       </c>
       <c r="E133">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>536</v>
       </c>
       <c r="F133">
@@ -8318,19 +8260,19 @@
         <v>128</v>
       </c>
       <c r="J133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>178077</v>
       </c>
       <c r="K133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30185</v>
       </c>
       <c r="L133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.14493762664336268</v>
       </c>
       <c r="M133">
-        <f>M132*$N$129</f>
+        <f t="shared" si="16"/>
         <v>0.17070510297736788</v>
       </c>
     </row>
@@ -8340,19 +8282,19 @@
         <v>44207</v>
       </c>
       <c r="B134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="C134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="D134">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3216</v>
       </c>
       <c r="E134">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>554</v>
       </c>
       <c r="F134">
@@ -8369,19 +8311,19 @@
         <v>373</v>
       </c>
       <c r="J134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>178809</v>
       </c>
       <c r="K134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30313</v>
       </c>
       <c r="L134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.14495366341178834</v>
       </c>
       <c r="M134">
-        <f>M133*$N$129</f>
+        <f t="shared" si="16"/>
         <v>0.17087507887173603</v>
       </c>
     </row>
@@ -8391,19 +8333,19 @@
         <v>44208</v>
       </c>
       <c r="B135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="C135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="D135">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3277</v>
       </c>
       <c r="E135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>562</v>
       </c>
       <c r="F135">
@@ -8420,19 +8362,19 @@
         <v>503</v>
       </c>
       <c r="J135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>180846</v>
       </c>
       <c r="K135">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30686</v>
       </c>
       <c r="L135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.14506552200139933</v>
       </c>
       <c r="M135">
-        <f>M134*$N$129</f>
+        <f t="shared" si="16"/>
         <v>0.17104522401590494</v>
       </c>
     </row>
@@ -8442,19 +8384,19 @@
         <v>44209</v>
       </c>
       <c r="B136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>76</v>
       </c>
       <c r="C136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="D136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3353</v>
       </c>
       <c r="E136">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>593</v>
       </c>
       <c r="F136">
@@ -8471,19 +8413,19 @@
         <v>457</v>
       </c>
       <c r="J136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>183919</v>
       </c>
       <c r="K136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>31189</v>
       </c>
       <c r="L136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.14499228294624095</v>
       </c>
       <c r="M136">
-        <f>M135*$N$129</f>
+        <f t="shared" si="16"/>
         <v>0.17121553857840141</v>
       </c>
     </row>

--- a/SEIR_2_wave/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/data/age_deaths_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D53E63-D435-48B2-BBAD-876478FA989B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E95FD-EA6F-4C71-AEF9-7E2D901C5543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,9 +552,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2135,15 +2136,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="O100" sqref="O1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.54296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -7996,7 +7998,7 @@
         <v>3284</v>
       </c>
       <c r="G128">
-        <f t="shared" ref="G128:G136" si="15">L115/M128</f>
+        <f t="shared" ref="G128:G140" si="15">L115/M128</f>
         <v>0.86018740900000001</v>
       </c>
       <c r="H128">
@@ -8021,7 +8023,7 @@
         <v>0.16918290844501468</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44202</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>1.0009957282553568</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44203</v>
       </c>
@@ -8120,11 +8122,12 @@
         <v>0.14417086618542452</v>
       </c>
       <c r="M130">
-        <f t="shared" ref="M130:M136" si="16">M129*$N$129</f>
+        <f t="shared" ref="M130:M140" si="16">M129*$N$129</f>
         <v>0.17019618911031342</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44204</v>
       </c>
@@ -8173,8 +8176,9 @@
         <f t="shared" si="16"/>
         <v>0.1703656582647646</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <f>A131+1</f>
         <v>44205</v>
@@ -8209,11 +8213,11 @@
         <v>622</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J132:J136" si="22">H131+J131</f>
+        <f t="shared" ref="J132:J140" si="22">H131+J131</f>
         <v>175726</v>
       </c>
       <c r="K132">
-        <f t="shared" ref="K132:K136" si="23">I131+K131</f>
+        <f t="shared" ref="K132:K140" si="23">I131+K131</f>
         <v>29563</v>
       </c>
       <c r="L132">
@@ -8224,8 +8228,9 @@
         <f t="shared" si="16"/>
         <v>0.1705352961644413</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <f>A132+1</f>
         <v>44206</v>
@@ -8275,8 +8280,9 @@
         <f t="shared" si="16"/>
         <v>0.17070510297736788</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <f>A133+1</f>
         <v>44207</v>
@@ -8326,8 +8332,9 @@
         <f t="shared" si="16"/>
         <v>0.17087507887173603</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <f>A134+1</f>
         <v>44208</v>
@@ -8377,8 +8384,9 @@
         <f t="shared" si="16"/>
         <v>0.17104522401590494</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <f>A135+1</f>
         <v>44209</v>
@@ -8428,6 +8436,215 @@
         <f t="shared" si="16"/>
         <v>0.17121553857840141</v>
       </c>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <f>1+A136</f>
+        <v>44210</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ref="B137:B140" si="25">D137-D136</f>
+        <v>84</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ref="C137:C140" si="26">E137-E136</f>
+        <v>34</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ref="D137:D140" si="27">ROUND(G137*F137,0)</f>
+        <v>3437</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ref="E137:E140" si="28">F137-D137</f>
+        <v>627</v>
+      </c>
+      <c r="F137">
+        <v>4064</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="15"/>
+        <v>0.84574788554535152</v>
+      </c>
+      <c r="H137">
+        <v>2192</v>
+      </c>
+      <c r="I137">
+        <v>537</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="22"/>
+        <v>186385</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="23"/>
+        <v>31646</v>
+      </c>
+      <c r="L137">
+        <f t="shared" ref="L137:L140" si="29">K137/(K137+J137)</f>
+        <v>0.14514449780077146</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="16"/>
+        <v>0.17138602272792006</v>
+      </c>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <f t="shared" ref="A138:A140" si="30">1+A137</f>
+        <v>44211</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="25"/>
+        <v>41</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="27"/>
+        <v>3478</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="28"/>
+        <v>645</v>
+      </c>
+      <c r="F138">
+        <v>4123</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="15"/>
+        <v>0.84344753377338921</v>
+      </c>
+      <c r="H138">
+        <v>1685</v>
+      </c>
+      <c r="I138">
+        <v>360</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="22"/>
+        <v>188577</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="23"/>
+        <v>32183</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="29"/>
+        <v>0.14578275049827868</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="16"/>
+        <v>0.17155667663332347</v>
+      </c>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <f t="shared" si="30"/>
+        <v>44212</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="27"/>
+        <v>3543</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="28"/>
+        <v>662</v>
+      </c>
+      <c r="F139">
+        <v>4205</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="15"/>
+        <v>0.84250330804212159</v>
+      </c>
+      <c r="H139">
+        <v>887</v>
+      </c>
+      <c r="I139">
+        <v>173</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="22"/>
+        <v>190262</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="23"/>
+        <v>32543</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="29"/>
+        <v>0.14606045645295213</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="16"/>
+        <v>0.17172750046364238</v>
+      </c>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <f t="shared" si="30"/>
+        <v>44213</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="25"/>
+        <v>57</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="27"/>
+        <v>3600</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="28"/>
+        <v>678</v>
+      </c>
+      <c r="F140">
+        <v>4278</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="15"/>
+        <v>0.84151011649311991</v>
+      </c>
+      <c r="H140">
+        <v>474</v>
+      </c>
+      <c r="I140">
+        <v>99</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="22"/>
+        <v>191149</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="23"/>
+        <v>32716</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="29"/>
+        <v>0.1461416478681348</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="16"/>
+        <v>0.17189849438807581</v>
+      </c>
+      <c r="O140" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SEIR_2_wave/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/data/age_deaths_cases.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E95FD-EA6F-4C71-AEF9-7E2D901C5543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA3198-854C-4BB7-84A0-C7A135AFBEDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_deaths_cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>DeathOld</t>
   </si>
@@ -2138,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:A140"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A138" sqref="A1:N140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8651,4 +8652,6582 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FFB7CF-60C4-4633-A46C-C73CF58CEDF4}">
+  <dimension ref="A1:N145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G145" sqref="B1:G145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <f>D2/F2</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>3597</v>
+      </c>
+      <c r="K2">
+        <v>445</v>
+      </c>
+      <c r="L2">
+        <f>K2/(K2+J2)</f>
+        <v>0.11009401286491836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">D3/F3</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>108</v>
+      </c>
+      <c r="J3">
+        <f>H2+J2</f>
+        <v>3603</v>
+      </c>
+      <c r="K3">
+        <f>I2+K2</f>
+        <v>492</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="1">K3/(K3+J3)</f>
+        <v>0.12014652014652015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="H4">
+        <v>126</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:K19" si="2">H3+J3</f>
+        <v>3616</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0.14231499051233396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="H5">
+        <v>212</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>3742</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>611</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.14036296806799908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="H6">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>3954</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.13649268399213801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>4033</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>634</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.13584743946860939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="H8">
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>4052</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>637</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.13584986137769248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H9">
+        <v>149</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>4135</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>645</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.13493723849372385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.83720930232558144</v>
+      </c>
+      <c r="H10">
+        <v>156</v>
+      </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>4284</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>657</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.13296903460837886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.83720930232558144</v>
+      </c>
+      <c r="H11">
+        <v>175</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>4440</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>679</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.13264309435436608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>43</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.83720930232558144</v>
+      </c>
+      <c r="H12">
+        <v>174</v>
+      </c>
+      <c r="I12">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>4615</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.13006597549481622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="H13">
+        <v>73</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>4789</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>717</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.13022157646204141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="H14">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>4862</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>723</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.12945389435989257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="H15">
+        <v>158</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>4906</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>727</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.12906089117699271</v>
+      </c>
+      <c r="M15">
+        <f>L2/G15</f>
+        <v>0.13455934905712244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>46</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="H16">
+        <v>84</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>5064</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>757</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.13004638378285518</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M51" si="3">L3/G16</f>
+        <v>0.14544052438789282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="H17">
+        <v>151</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>5148</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>765</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.12937595129375951</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.17394054395951927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="H18">
+        <v>219</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>5299</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>775</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0.12759301942706619</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0.16775086427638913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>51</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.84313725490196079</v>
+      </c>
+      <c r="H19">
+        <v>260</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>5518</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>791</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.12537644634648915</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>0.16188667171160556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>52</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="H20">
+        <v>124</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:K35" si="4">H19+J19</f>
+        <v>5778</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>821</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0.12441278981663889</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>0.16054697391744746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="H21">
+        <v>73</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>5902</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>828</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0.12303120356612184</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>0.16054983617363658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="H22">
+        <v>142</v>
+      </c>
+      <c r="I22">
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>5975</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>834</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.12248494639447789</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0.15790527908840027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>56</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H23">
+        <v>300</v>
+      </c>
+      <c r="I23">
+        <v>38</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>6117</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>867</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.12414089347079038</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.155130540376442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="H24">
+        <v>294</v>
+      </c>
+      <c r="I24">
+        <v>66</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>6417</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>905</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.1236001092597651</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.15386598945106467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="H25">
+        <v>367</v>
+      </c>
+      <c r="I25">
+        <v>52</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>6711</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>971</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.12639937516271804</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0.15087653157398681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="H26">
+        <v>481</v>
+      </c>
+      <c r="I26">
+        <v>71</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>7078</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>1023</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.12628070608566844</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>0.15105702869596804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>58</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="H27">
+        <v>445</v>
+      </c>
+      <c r="I27">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>7559</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>1094</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.12643013983589507</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>0.15016651745747539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>59</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0.86440677966101698</v>
+      </c>
+      <c r="H28">
+        <v>233</v>
+      </c>
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>8004</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>1127</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0.12342569269521411</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>0.14930573685181509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>63</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0.84126984126984128</v>
+      </c>
+      <c r="H29">
+        <v>192</v>
+      </c>
+      <c r="I29">
+        <v>39</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>8237</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>1159</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.12335036185610898</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>0.15458343732679011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>53</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.81538461538461537</v>
+      </c>
+      <c r="H30">
+        <v>474</v>
+      </c>
+      <c r="I30">
+        <v>93</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>8429</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>1198</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.12444167445725564</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>0.1586686195112145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0.80303030303030298</v>
+      </c>
+      <c r="H31">
+        <v>710</v>
+      </c>
+      <c r="I31">
+        <v>87</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>8903</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>1291</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0.12664312340592507</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>0.15888942041861073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>56</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>69</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0.81159420289855078</v>
+      </c>
+      <c r="H32">
+        <v>608</v>
+      </c>
+      <c r="I32">
+        <v>71</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>9613</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>1378</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.12537530706942043</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>0.15448169281978125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>80</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H33">
+        <v>599</v>
+      </c>
+      <c r="I33">
+        <v>105</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>10221</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>1449</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.12416452442159383</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>0.15798449500525574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>67</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>84</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0.79761904761904767</v>
+      </c>
+      <c r="H34">
+        <v>734</v>
+      </c>
+      <c r="I34">
+        <v>84</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>10820</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>1554</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.12558590593179247</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>0.15424807611274977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>87</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="H35">
+        <v>310</v>
+      </c>
+      <c r="I35">
+        <v>43</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>11554</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>1638</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0.12416616130988478</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>0.15223129051885109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>91</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0.79120879120879117</v>
+      </c>
+      <c r="H36">
+        <v>284</v>
+      </c>
+      <c r="I36">
+        <v>36</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:K51" si="5">H35+J35</f>
+        <v>11864</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>1681</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>0.12410483573274271</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>0.15690029591447119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>94</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0.7978723404255319</v>
+      </c>
+      <c r="H37">
+        <v>786</v>
+      </c>
+      <c r="I37">
+        <v>91</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>12148</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>1717</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>0.12383699963937973</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0.1549121369389056</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>80</v>
+      </c>
+      <c r="E38">
+        <v>19</v>
+      </c>
+      <c r="F38">
+        <v>99</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0.80808080808080807</v>
+      </c>
+      <c r="H38">
+        <v>943</v>
+      </c>
+      <c r="I38">
+        <v>94</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>12934</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>1808</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>0.12264278930945598</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0.15641922676386358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>102</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="H39">
+        <v>1056</v>
+      </c>
+      <c r="I39">
+        <v>128</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>13877</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>1902</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>0.12053995817225426</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0.15708087830168513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>87</v>
+      </c>
+      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="F40">
+        <v>110</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0.79090909090909089</v>
+      </c>
+      <c r="H40">
+        <v>1604</v>
+      </c>
+      <c r="I40">
+        <v>283</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>14933</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>2030</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>0.11967222778989565</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0.159854199792511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>115</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H41">
+        <v>908</v>
+      </c>
+      <c r="I41">
+        <v>146</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>16537</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>2313</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>0.12270557029177719</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0.15428211586901763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>94</v>
+      </c>
+      <c r="E42">
+        <v>24</v>
+      </c>
+      <c r="F42">
+        <v>118</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0.79661016949152541</v>
+      </c>
+      <c r="H42">
+        <v>449</v>
+      </c>
+      <c r="I42">
+        <v>55</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>17445</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>2459</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>0.12354300643086817</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>0.15484407126617936</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <v>124</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="H43">
+        <v>464</v>
+      </c>
+      <c r="I43">
+        <v>67</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>17894</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>2514</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>0.12318698549588397</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>0.15430767632699699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>105</v>
+      </c>
+      <c r="E44">
+        <v>26</v>
+      </c>
+      <c r="F44">
+        <v>131</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0.80152671755725191</v>
+      </c>
+      <c r="H44">
+        <v>1242</v>
+      </c>
+      <c r="I44">
+        <v>168</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>18358</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>2581</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>0.12326281102249391</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>0.15800237301120176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>110</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>139</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0.79136690647482011</v>
+      </c>
+      <c r="H45">
+        <v>1639</v>
+      </c>
+      <c r="I45">
+        <v>290</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>19600</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>2749</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>0.12300326636538547</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>0.15842879711499491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>117</v>
+      </c>
+      <c r="E46">
+        <v>29</v>
+      </c>
+      <c r="F46">
+        <v>146</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0.80136986301369861</v>
+      </c>
+      <c r="H46">
+        <v>1855</v>
+      </c>
+      <c r="I46">
+        <v>220</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>21239</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>3039</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>0.12517505560589834</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>0.15494034671412563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>127</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>157</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0.80891719745222934</v>
+      </c>
+      <c r="H47">
+        <v>1771</v>
+      </c>
+      <c r="I47">
+        <v>197</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>23094</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>3259</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>0.12366713467157439</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>0.15525186796292453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>137</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>167</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0.82035928143712578</v>
+      </c>
+      <c r="H48">
+        <v>1392</v>
+      </c>
+      <c r="I48">
+        <v>175</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>24865</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>3456</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>0.12202958935065852</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>0.15135583166971356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>142</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <v>175</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0.81142857142857139</v>
+      </c>
+      <c r="H49">
+        <v>759</v>
+      </c>
+      <c r="I49">
+        <v>101</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>26257</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>3631</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>0.12148688436830835</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>0.15294610037485898</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>150</v>
+      </c>
+      <c r="E50">
+        <v>37</v>
+      </c>
+      <c r="F50">
+        <v>187</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0.80213903743315507</v>
+      </c>
+      <c r="H50">
+        <v>609</v>
+      </c>
+      <c r="I50">
+        <v>96</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>27016</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>3732</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>0.12137374788604137</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>0.15438345955042673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>158</v>
+      </c>
+      <c r="E51">
+        <v>41</v>
+      </c>
+      <c r="F51">
+        <v>199</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0.79396984924623115</v>
+      </c>
+      <c r="H51">
+        <v>1890</v>
+      </c>
+      <c r="I51">
+        <v>312</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>27625</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>3828</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>0.12170540171048866</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>0.1544678169150743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>170</v>
+      </c>
+      <c r="E52">
+        <v>43</v>
+      </c>
+      <c r="F52">
+        <v>213</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0.7981220657276995</v>
+      </c>
+      <c r="H52">
+        <v>1513</v>
+      </c>
+      <c r="I52">
+        <v>215</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:K67" si="6">H51+J51</f>
+        <v>29515</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="6"/>
+        <v>4140</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>0.12301292527113356</v>
+      </c>
+      <c r="M52">
+        <f>L39/G52</f>
+        <v>0.15102947700405975</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>184</v>
+      </c>
+      <c r="E53">
+        <v>45</v>
+      </c>
+      <c r="F53">
+        <v>229</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>0.80349344978165937</v>
+      </c>
+      <c r="H53">
+        <v>2328</v>
+      </c>
+      <c r="I53">
+        <v>253</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="6"/>
+        <v>31028</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="6"/>
+        <v>4355</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>0.12308170590396518</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:M92" si="7">L40/G53</f>
+        <v>0.14893989219503317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>203</v>
+      </c>
+      <c r="E54">
+        <v>48</v>
+      </c>
+      <c r="F54">
+        <v>251</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0.80876494023904377</v>
+      </c>
+      <c r="H54">
+        <v>2594</v>
+      </c>
+      <c r="I54">
+        <v>296</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="6"/>
+        <v>33356</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="6"/>
+        <v>4608</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>0.12137814771889158</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="7"/>
+        <v>0.15171969528687723</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>211</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <v>261</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0.80842911877394641</v>
+      </c>
+      <c r="H55">
+        <v>2637</v>
+      </c>
+      <c r="I55">
+        <v>405</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="6"/>
+        <v>35950</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="6"/>
+        <v>4904</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>0.12003720565917658</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="7"/>
+        <v>0.15281860037183218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>219</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <v>273</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>0.80219780219780223</v>
+      </c>
+      <c r="H56">
+        <v>1110</v>
+      </c>
+      <c r="I56">
+        <v>202</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="6"/>
+        <v>38587</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="6"/>
+        <v>5309</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>0.12094496081647531</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="7"/>
+        <v>0.15356185863185534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>231</v>
+      </c>
+      <c r="E57">
+        <v>57</v>
+      </c>
+      <c r="F57">
+        <v>288</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H57">
+        <v>771</v>
+      </c>
+      <c r="I57">
+        <v>130</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="6"/>
+        <v>39697</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="6"/>
+        <v>5511</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>0.12190320297292515</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="7"/>
+        <v>0.15367830984622616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>243</v>
+      </c>
+      <c r="E58">
+        <v>61</v>
+      </c>
+      <c r="F58">
+        <v>304</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0.79934210526315785</v>
+      </c>
+      <c r="H58">
+        <v>2492</v>
+      </c>
+      <c r="I58">
+        <v>395</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="6"/>
+        <v>40468</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="6"/>
+        <v>5641</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>0.12234054089223362</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="7"/>
+        <v>0.1538806295270666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B59">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>269</v>
+      </c>
+      <c r="E59">
+        <v>65</v>
+      </c>
+      <c r="F59">
+        <v>334</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>0.80538922155688619</v>
+      </c>
+      <c r="H59">
+        <v>2341</v>
+      </c>
+      <c r="I59">
+        <v>444</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="6"/>
+        <v>42960</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="6"/>
+        <v>6036</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>0.12319373010041636</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="7"/>
+        <v>0.15542181625416374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>283</v>
+      </c>
+      <c r="E60">
+        <v>67</v>
+      </c>
+      <c r="F60">
+        <v>350</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>0.80857142857142861</v>
+      </c>
+      <c r="H60">
+        <v>2805</v>
+      </c>
+      <c r="I60">
+        <v>558</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="6"/>
+        <v>45301</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="6"/>
+        <v>6480</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>0.12514242675884976</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="7"/>
+        <v>0.15294521955848422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>299</v>
+      </c>
+      <c r="E61">
+        <v>69</v>
+      </c>
+      <c r="F61">
+        <v>368</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="H61">
+        <v>2280</v>
+      </c>
+      <c r="I61">
+        <v>293</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="6"/>
+        <v>48106</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="6"/>
+        <v>7038</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>0.12762947918177861</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="7"/>
+        <v>0.1501902638161951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>315</v>
+      </c>
+      <c r="E62">
+        <v>73</v>
+      </c>
+      <c r="F62">
+        <v>388</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0.81185567010309279</v>
+      </c>
+      <c r="H62">
+        <v>1961</v>
+      </c>
+      <c r="I62">
+        <v>321</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="6"/>
+        <v>50386</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="6"/>
+        <v>7331</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>0.12701630368868791</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="7"/>
+        <v>0.14964098772985282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>336</v>
+      </c>
+      <c r="E63">
+        <v>77</v>
+      </c>
+      <c r="F63">
+        <v>413</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>0.81355932203389836</v>
+      </c>
+      <c r="H63">
+        <v>1693</v>
+      </c>
+      <c r="I63">
+        <v>190</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="6"/>
+        <v>52347</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="6"/>
+        <v>7652</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>0.12753545892431539</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="7"/>
+        <v>0.14918856510992584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B64">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>360</v>
+      </c>
+      <c r="E64">
+        <v>80</v>
+      </c>
+      <c r="F64">
+        <v>440</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="H64">
+        <v>1499</v>
+      </c>
+      <c r="I64">
+        <v>228</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="6"/>
+        <v>54040</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="6"/>
+        <v>7842</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>0.12672505736724735</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="7"/>
+        <v>0.14875104653504168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B65">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>383</v>
+      </c>
+      <c r="E65">
+        <v>83</v>
+      </c>
+      <c r="F65">
+        <v>466</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0.82188841201716734</v>
+      </c>
+      <c r="H65">
+        <v>2791</v>
+      </c>
+      <c r="I65">
+        <v>425</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="6"/>
+        <v>55539</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="6"/>
+        <v>8070</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>0.12686883931519125</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="7"/>
+        <v>0.14967107878942099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B66">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>404</v>
+      </c>
+      <c r="E66">
+        <v>85</v>
+      </c>
+      <c r="F66">
+        <v>489</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>0.82617586912065444</v>
+      </c>
+      <c r="H66">
+        <v>1665</v>
+      </c>
+      <c r="I66">
+        <v>297</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="6"/>
+        <v>58330</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="6"/>
+        <v>8495</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>0.12712308267863823</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="7"/>
+        <v>0.14897760937385884</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>420</v>
+      </c>
+      <c r="E67">
+        <v>87</v>
+      </c>
+      <c r="F67">
+        <v>507</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G91" si="8">D67/F67</f>
+        <v>0.82840236686390534</v>
+      </c>
+      <c r="H67">
+        <v>2046</v>
+      </c>
+      <c r="I67">
+        <v>308</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="6"/>
+        <v>59995</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="6"/>
+        <v>8792</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L130" si="9">K67/(K67+J67)</f>
+        <v>0.127814848735953</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="7"/>
+        <v>0.14652076403209055</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B68">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>434</v>
+      </c>
+      <c r="E68">
+        <v>88</v>
+      </c>
+      <c r="F68">
+        <v>522</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>0.83141762452107282</v>
+      </c>
+      <c r="H68">
+        <v>2177</v>
+      </c>
+      <c r="I68">
+        <v>402</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:K83" si="10">H67+J67</f>
+        <v>62041</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="10"/>
+        <v>9100</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="9"/>
+        <v>0.12791498573255927</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="7"/>
+        <v>0.14437654689882529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B69">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>453</v>
+      </c>
+      <c r="E69">
+        <v>89</v>
+      </c>
+      <c r="F69">
+        <v>542</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>0.83579335793357934</v>
+      </c>
+      <c r="H69">
+        <v>1584</v>
+      </c>
+      <c r="I69">
+        <v>244</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="10"/>
+        <v>64218</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="10"/>
+        <v>9502</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="9"/>
+        <v>0.12889310906131307</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="7"/>
+        <v>0.14470677431021992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>469</v>
+      </c>
+      <c r="E70">
+        <v>93</v>
+      </c>
+      <c r="F70">
+        <v>562</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>0.83451957295373669</v>
+      </c>
+      <c r="H70">
+        <v>505</v>
+      </c>
+      <c r="I70">
+        <v>72</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="10"/>
+        <v>65802</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="10"/>
+        <v>9746</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="9"/>
+        <v>0.12900407687827606</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="7"/>
+        <v>0.1460759063342941</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B71">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>489</v>
+      </c>
+      <c r="E71">
+        <v>97</v>
+      </c>
+      <c r="F71">
+        <v>586</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>0.83447098976109213</v>
+      </c>
+      <c r="H71">
+        <v>878</v>
+      </c>
+      <c r="I71">
+        <v>173</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="10"/>
+        <v>66307</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="10"/>
+        <v>9818</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="9"/>
+        <v>0.12897208538587848</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="7"/>
+        <v>0.14660850094652128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B72">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>507</v>
+      </c>
+      <c r="E72">
+        <v>99</v>
+      </c>
+      <c r="F72">
+        <v>606</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>0.8366336633663366</v>
+      </c>
+      <c r="H72">
+        <v>1727</v>
+      </c>
+      <c r="I72">
+        <v>331</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="10"/>
+        <v>67185</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="10"/>
+        <v>9991</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="9"/>
+        <v>0.12945734425209909</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="7"/>
+        <v>0.14724931053422546</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B73">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>527</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73">
+        <v>627</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>0.84051036682615632</v>
+      </c>
+      <c r="H73">
+        <v>2250</v>
+      </c>
+      <c r="I73">
+        <v>341</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="10"/>
+        <v>68912</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="10"/>
+        <v>10322</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="9"/>
+        <v>0.13027235782618574</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="7"/>
+        <v>0.14888861779468462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B74">
+        <v>32</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>556</v>
+      </c>
+      <c r="E74">
+        <v>103</v>
+      </c>
+      <c r="F74">
+        <v>659</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>0.8437025796661608</v>
+      </c>
+      <c r="H74">
+        <v>1708</v>
+      </c>
+      <c r="I74">
+        <v>316</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="10"/>
+        <v>71162</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="10"/>
+        <v>10663</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="9"/>
+        <v>0.13031469599755577</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="7"/>
+        <v>0.15127306974962609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B75">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>578</v>
+      </c>
+      <c r="E75">
+        <v>106</v>
+      </c>
+      <c r="F75">
+        <v>684</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>0.84502923976608191</v>
+      </c>
+      <c r="H75">
+        <v>1515</v>
+      </c>
+      <c r="I75">
+        <v>256</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="10"/>
+        <v>72870</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="10"/>
+        <v>10979</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="9"/>
+        <v>0.13093775715870196</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="7"/>
+        <v>0.15030995107796286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B76">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>604</v>
+      </c>
+      <c r="E76">
+        <v>110</v>
+      </c>
+      <c r="F76">
+        <v>714</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>0.84593837535014005</v>
+      </c>
+      <c r="H76">
+        <v>1023</v>
+      </c>
+      <c r="I76">
+        <v>177</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="10"/>
+        <v>74385</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="10"/>
+        <v>11235</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="9"/>
+        <v>0.13121934127540294</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="7"/>
+        <v>0.15076211535092912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B77">
+        <v>28</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>621</v>
+      </c>
+      <c r="E77">
+        <v>111</v>
+      </c>
+      <c r="F77">
+        <v>732</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>0.84836065573770492</v>
+      </c>
+      <c r="H77">
+        <v>351</v>
+      </c>
+      <c r="I77">
+        <v>158</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="10"/>
+        <v>75408</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="10"/>
+        <v>11412</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="9"/>
+        <v>0.13144436765722184</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="7"/>
+        <v>0.14937639612371184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B78">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>637</v>
+      </c>
+      <c r="E78">
+        <v>111</v>
+      </c>
+      <c r="F78">
+        <v>748</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>0.85160427807486627</v>
+      </c>
+      <c r="H78">
+        <v>1073</v>
+      </c>
+      <c r="I78">
+        <v>253</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="10"/>
+        <v>75759</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="10"/>
+        <v>11570</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="9"/>
+        <v>0.13248748983728201</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="7"/>
+        <v>0.14897628227278345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B79">
+        <v>29</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>665</v>
+      </c>
+      <c r="E79">
+        <v>115</v>
+      </c>
+      <c r="F79">
+        <v>780</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>0.85256410256410253</v>
+      </c>
+      <c r="H79">
+        <v>1063</v>
+      </c>
+      <c r="I79">
+        <v>248</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="10"/>
+        <v>76832</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="10"/>
+        <v>11823</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="9"/>
+        <v>0.13335965258586657</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="7"/>
+        <v>0.14910677366817718</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B80">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>679</v>
+      </c>
+      <c r="E80">
+        <v>115</v>
+      </c>
+      <c r="F80">
+        <v>794</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>0.85516372795969775</v>
+      </c>
+      <c r="H80">
+        <v>1384</v>
+      </c>
+      <c r="I80">
+        <v>281</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="10"/>
+        <v>77895</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="10"/>
+        <v>12071</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="9"/>
+        <v>0.13417290976591156</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="7"/>
+        <v>0.14946242989152678</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B81">
+        <v>28</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>706</v>
+      </c>
+      <c r="E81">
+        <v>119</v>
+      </c>
+      <c r="F81">
+        <v>825</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>0.85575757575757572</v>
+      </c>
+      <c r="H81">
+        <v>1529</v>
+      </c>
+      <c r="I81">
+        <v>289</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="10"/>
+        <v>79279</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="10"/>
+        <v>12352</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="9"/>
+        <v>0.13480154096321115</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="7"/>
+        <v>0.14947572695376971</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B82">
+        <v>28</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>733</v>
+      </c>
+      <c r="E82">
+        <v>123</v>
+      </c>
+      <c r="F82">
+        <v>856</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>0.85630841121495327</v>
+      </c>
+      <c r="H82">
+        <v>1518</v>
+      </c>
+      <c r="I82">
+        <v>343</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="10"/>
+        <v>80808</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="10"/>
+        <v>12641</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="9"/>
+        <v>0.13527164549647402</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="7"/>
+        <v>0.15052182995427557</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>753</v>
+      </c>
+      <c r="E83">
+        <v>126</v>
+      </c>
+      <c r="F83">
+        <v>879</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>0.85665529010238906</v>
+      </c>
+      <c r="H83">
+        <v>794</v>
+      </c>
+      <c r="I83">
+        <v>190</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="10"/>
+        <v>82326</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="10"/>
+        <v>12984</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="9"/>
+        <v>0.13622914699401953</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="7"/>
+        <v>0.15059041643559715</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>770</v>
+      </c>
+      <c r="E84">
+        <v>128</v>
+      </c>
+      <c r="F84">
+        <v>898</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>0.85746102449888639</v>
+      </c>
+      <c r="H84">
+        <v>191</v>
+      </c>
+      <c r="I84">
+        <v>40</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ref="J84:K99" si="11">H83+J83</f>
+        <v>83120</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="11"/>
+        <v>13174</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="9"/>
+        <v>0.13681018547365359</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="7"/>
+        <v>0.15041160087859595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B85">
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>786</v>
+      </c>
+      <c r="E85">
+        <v>131</v>
+      </c>
+      <c r="F85">
+        <v>917</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H85">
+        <v>869</v>
+      </c>
+      <c r="I85">
+        <v>152</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>83311</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="11"/>
+        <v>13214</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="9"/>
+        <v>0.1368971768971769</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="7"/>
+        <v>0.15103356829411563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>810</v>
+      </c>
+      <c r="E86">
+        <v>136</v>
+      </c>
+      <c r="F86">
+        <v>946</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="8"/>
+        <v>0.85623678646934465</v>
+      </c>
+      <c r="H86">
+        <v>1440</v>
+      </c>
+      <c r="I86">
+        <v>371</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>84180</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="11"/>
+        <v>13366</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="9"/>
+        <v>0.13702253295880917</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="7"/>
+        <v>0.1521452475352737</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>829</v>
+      </c>
+      <c r="E87">
+        <v>142</v>
+      </c>
+      <c r="F87">
+        <v>971</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="8"/>
+        <v>0.85375901132852727</v>
+      </c>
+      <c r="H87">
+        <v>1546</v>
+      </c>
+      <c r="I87">
+        <v>407</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="11"/>
+        <v>85620</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="11"/>
+        <v>13737</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="9"/>
+        <v>0.13825900540475256</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="7"/>
+        <v>0.15263639302005627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>854</v>
+      </c>
+      <c r="E88">
+        <v>147</v>
+      </c>
+      <c r="F88">
+        <v>1001</v>
+      </c>
+      <c r="G88">
+        <f>D88/F88</f>
+        <v>0.85314685314685312</v>
+      </c>
+      <c r="H88">
+        <v>1516</v>
+      </c>
+      <c r="I88">
+        <v>333</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="11"/>
+        <v>87166</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="11"/>
+        <v>14144</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="9"/>
+        <v>0.13961109465995458</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="7"/>
+        <v>0.15347622355487198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>878</v>
+      </c>
+      <c r="E89">
+        <v>154</v>
+      </c>
+      <c r="F89">
+        <v>1032</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>0.85077519379844957</v>
+      </c>
+      <c r="H89">
+        <v>1206</v>
+      </c>
+      <c r="I89">
+        <v>321</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>88682</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="11"/>
+        <v>14477</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="9"/>
+        <v>0.14033676169796139</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="7"/>
+        <v>0.15423503439204539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B90">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>900</v>
+      </c>
+      <c r="E90">
+        <v>159</v>
+      </c>
+      <c r="F90">
+        <v>1059</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="8"/>
+        <v>0.84985835694050993</v>
+      </c>
+      <c r="H90">
+        <v>949</v>
+      </c>
+      <c r="I90">
+        <v>151</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="11"/>
+        <v>89888</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="11"/>
+        <v>14798</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="9"/>
+        <v>0.14135605525094092</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="7"/>
+        <v>0.15466620594333103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B91">
+        <v>21</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>916</v>
+      </c>
+      <c r="E91">
+        <v>161</v>
+      </c>
+      <c r="F91">
+        <v>1077</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="8"/>
+        <v>0.85051067780872791</v>
+      </c>
+      <c r="H91">
+        <v>149</v>
+      </c>
+      <c r="I91">
+        <v>47</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="11"/>
+        <v>90837</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="11"/>
+        <v>14949</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="9"/>
+        <v>0.14131359537178834</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="7"/>
+        <v>0.15577404645715362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B92">
+        <v>23</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>938</v>
+      </c>
+      <c r="E92">
+        <v>165</v>
+      </c>
+      <c r="F92">
+        <v>1103</v>
+      </c>
+      <c r="G92">
+        <f>D92/F92</f>
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H92">
+        <v>1029</v>
+      </c>
+      <c r="I92">
+        <v>225</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="11"/>
+        <v>90986</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="11"/>
+        <v>14996</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="9"/>
+        <v>0.14149572568926799</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="7"/>
+        <v>0.15681844008764481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <f>ROUND(G93*F93,0)</f>
+        <v>951</v>
+      </c>
+      <c r="E93">
+        <v>170</v>
+      </c>
+      <c r="F93">
+        <v>1118</v>
+      </c>
+      <c r="G93">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H93">
+        <v>1679</v>
+      </c>
+      <c r="I93">
+        <v>364</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="11"/>
+        <v>92015</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="11"/>
+        <v>15221</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="9"/>
+        <v>0.14193927412436122</v>
+      </c>
+      <c r="M93">
+        <v>0.1582484536666833</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ref="D94:D140" si="12">ROUND(G94*F94,0)</f>
+        <v>995</v>
+      </c>
+      <c r="E94">
+        <f>F94-D94</f>
+        <v>175</v>
+      </c>
+      <c r="F94">
+        <v>1170</v>
+      </c>
+      <c r="G94">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H94">
+        <v>1713</v>
+      </c>
+      <c r="I94">
+        <v>269</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="11"/>
+        <v>93694</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="11"/>
+        <v>15585</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="9"/>
+        <v>0.1426166052031955</v>
+      </c>
+      <c r="M94">
+        <v>0.15867712926716004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B95">
+        <v>29</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="12"/>
+        <v>1027</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ref="E95:E140" si="13">F95-D95</f>
+        <v>181</v>
+      </c>
+      <c r="F95">
+        <v>1208</v>
+      </c>
+      <c r="G95">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H95">
+        <v>1823</v>
+      </c>
+      <c r="I95">
+        <v>361</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="11"/>
+        <v>95407</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="11"/>
+        <v>15854</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="9"/>
+        <v>0.14249377589631587</v>
+      </c>
+      <c r="M95">
+        <v>0.15834516245390842</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B96">
+        <v>24</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="12"/>
+        <v>1049</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="F96">
+        <v>1234</v>
+      </c>
+      <c r="G96">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H96">
+        <v>1803</v>
+      </c>
+      <c r="I96">
+        <v>267</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="11"/>
+        <v>97230</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="11"/>
+        <v>16215</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="9"/>
+        <v>0.14293269866455111</v>
+      </c>
+      <c r="M96">
+        <v>0.15904506920559128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B97">
+        <v>28</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="12"/>
+        <v>1062</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="13"/>
+        <v>187</v>
+      </c>
+      <c r="F97">
+        <v>1249</v>
+      </c>
+      <c r="G97">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H97">
+        <v>959</v>
+      </c>
+      <c r="I97">
+        <v>310</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="11"/>
+        <v>99033</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="11"/>
+        <v>16482</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="9"/>
+        <v>0.14268276847162706</v>
+      </c>
+      <c r="M97">
+        <v>0.15989913513309881</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B98">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="12"/>
+        <v>1083</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="13"/>
+        <v>191</v>
+      </c>
+      <c r="F98">
+        <v>1274</v>
+      </c>
+      <c r="G98">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H98">
+        <v>459</v>
+      </c>
+      <c r="I98">
+        <v>93</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="11"/>
+        <v>99992</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="11"/>
+        <v>16792</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="9"/>
+        <v>0.14378682011234414</v>
+      </c>
+      <c r="M98">
+        <v>0.16011825548634165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B99">
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="12"/>
+        <v>1119</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="13"/>
+        <v>197</v>
+      </c>
+      <c r="F99">
+        <v>1316</v>
+      </c>
+      <c r="G99">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H99">
+        <v>1593</v>
+      </c>
+      <c r="I99">
+        <v>356</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="11"/>
+        <v>100451</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="11"/>
+        <v>16885</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="9"/>
+        <v>0.14390297947773914</v>
+      </c>
+      <c r="M99">
+        <v>0.15956835961068602</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B100">
+        <v>30</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="12"/>
+        <v>1155</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="13"/>
+        <v>203</v>
+      </c>
+      <c r="F100">
+        <v>1358</v>
+      </c>
+      <c r="G100">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H100">
+        <v>2221</v>
+      </c>
+      <c r="I100">
+        <v>343</v>
+      </c>
+      <c r="J100">
+        <f t="shared" ref="J100:K115" si="14">H99+J99</f>
+        <v>102044</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="14"/>
+        <v>17241</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="9"/>
+        <v>0.14453619482751393</v>
+      </c>
+      <c r="M100">
+        <v>0.16018450231985759</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B101">
+        <v>36</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="12"/>
+        <v>1177</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="13"/>
+        <v>207</v>
+      </c>
+      <c r="F101">
+        <v>1384</v>
+      </c>
+      <c r="G101">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H101">
+        <v>2710</v>
+      </c>
+      <c r="I101">
+        <v>415</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="14"/>
+        <v>104265</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="14"/>
+        <v>17584</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="9"/>
+        <v>0.14430976044120181</v>
+      </c>
+      <c r="M101">
+        <v>0.16136392231469618</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B102">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="12"/>
+        <v>1201</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="13"/>
+        <v>211</v>
+      </c>
+      <c r="F102">
+        <v>1412</v>
+      </c>
+      <c r="G102">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H102">
+        <v>1849</v>
+      </c>
+      <c r="I102">
+        <v>317</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="14"/>
+        <v>106975</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="14"/>
+        <v>17999</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="9"/>
+        <v>0.14402195656696593</v>
+      </c>
+      <c r="M102">
+        <v>0.1617853133985388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B103">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="12"/>
+        <v>1225</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="13"/>
+        <v>216</v>
+      </c>
+      <c r="F103">
+        <v>1441</v>
+      </c>
+      <c r="G103">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H103">
+        <v>3200</v>
+      </c>
+      <c r="I103">
+        <v>507</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="14"/>
+        <v>108824</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="14"/>
+        <v>18316</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="9"/>
+        <v>0.14406166430706308</v>
+      </c>
+      <c r="M103">
+        <v>0.16328250015768869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ref="B104:C131" si="15">D104-D103</f>
+        <v>32</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="12"/>
+        <v>1257</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="13"/>
+        <v>221</v>
+      </c>
+      <c r="F104">
+        <v>1478</v>
+      </c>
+      <c r="G104">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H104">
+        <v>1746</v>
+      </c>
+      <c r="I104">
+        <v>444</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="14"/>
+        <v>112024</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="14"/>
+        <v>18823</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="9"/>
+        <v>0.14385503679870382</v>
+      </c>
+      <c r="M104">
+        <v>0.16330687512829012</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="12"/>
+        <v>1291</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="13"/>
+        <v>227</v>
+      </c>
+      <c r="F105">
+        <v>1518</v>
+      </c>
+      <c r="G105">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H105">
+        <v>435</v>
+      </c>
+      <c r="I105">
+        <v>70</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="14"/>
+        <v>113770</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="14"/>
+        <v>19267</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="9"/>
+        <v>0.14482437216714147</v>
+      </c>
+      <c r="M105">
+        <v>0.16327251455677344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B106">
+        <v>33</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="12"/>
+        <v>1348</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="13"/>
+        <v>237</v>
+      </c>
+      <c r="F106">
+        <v>1585</v>
+      </c>
+      <c r="G106">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H106">
+        <v>1714</v>
+      </c>
+      <c r="I106">
+        <v>320</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="14"/>
+        <v>114205</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="14"/>
+        <v>19337</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="9"/>
+        <v>0.14480088661245152</v>
+      </c>
+      <c r="M106">
+        <v>0.16326032424924683</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B107">
+        <v>36</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="12"/>
+        <v>1411</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="13"/>
+        <v>248</v>
+      </c>
+      <c r="F107">
+        <v>1659</v>
+      </c>
+      <c r="G107">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H107">
+        <v>2987</v>
+      </c>
+      <c r="I107">
+        <v>578</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="14"/>
+        <v>115919</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="14"/>
+        <v>19657</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="9"/>
+        <v>0.14498878857614916</v>
+      </c>
+      <c r="M107">
+        <v>0.16444690125040365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B108">
+        <v>28</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="12"/>
+        <v>1482</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="13"/>
+        <v>261</v>
+      </c>
+      <c r="F108">
+        <v>1743</v>
+      </c>
+      <c r="G108">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H108">
+        <v>2624</v>
+      </c>
+      <c r="I108">
+        <v>421</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="14"/>
+        <v>118906</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="14"/>
+        <v>20235</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="9"/>
+        <v>0.14542801905980265</v>
+      </c>
+      <c r="M108">
+        <v>0.16405887501054986</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="12"/>
+        <v>1547</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="13"/>
+        <v>272</v>
+      </c>
+      <c r="F109">
+        <v>1819</v>
+      </c>
+      <c r="G109">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H109">
+        <v>3387</v>
+      </c>
+      <c r="I109">
+        <v>604</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="14"/>
+        <v>121530</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="14"/>
+        <v>20656</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="9"/>
+        <v>0.14527449959911665</v>
+      </c>
+      <c r="M109">
+        <v>0.16512175822283046</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B110">
+        <v>28</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="12"/>
+        <v>1613</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="13"/>
+        <v>284</v>
+      </c>
+      <c r="F110">
+        <v>1897</v>
+      </c>
+      <c r="G110">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H110">
+        <v>2708</v>
+      </c>
+      <c r="I110">
+        <v>443</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="14"/>
+        <v>124917</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="14"/>
+        <v>21260</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="9"/>
+        <v>0.14544011711828811</v>
+      </c>
+      <c r="M110">
+        <v>0.16383115999823236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B111">
+        <v>34</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="12"/>
+        <v>1657</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="13"/>
+        <v>292</v>
+      </c>
+      <c r="F111">
+        <v>1949</v>
+      </c>
+      <c r="G111">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H111">
+        <v>1797</v>
+      </c>
+      <c r="I111">
+        <v>264</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="14"/>
+        <v>127625</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="14"/>
+        <v>21703</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="9"/>
+        <v>0.14533777992071145</v>
+      </c>
+      <c r="M111">
+        <v>0.16524989885916416</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B112">
+        <v>32</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="12"/>
+        <v>1714</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="13"/>
+        <v>301</v>
+      </c>
+      <c r="F112">
+        <v>2015</v>
+      </c>
+      <c r="G112">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H112">
+        <v>1046</v>
+      </c>
+      <c r="I112">
+        <v>173</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="14"/>
+        <v>129422</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="14"/>
+        <v>21967</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="9"/>
+        <v>0.14510301276843099</v>
+      </c>
+      <c r="M112">
+        <v>0.16492236735728699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B113">
+        <v>34</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="12"/>
+        <v>1714</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="13"/>
+        <v>301</v>
+      </c>
+      <c r="F113">
+        <v>2015</v>
+      </c>
+      <c r="G113">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H113">
+        <v>2297</v>
+      </c>
+      <c r="I113">
+        <v>366</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="14"/>
+        <v>130468</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="14"/>
+        <v>22140</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="9"/>
+        <v>0.14507758439924512</v>
+      </c>
+      <c r="M113">
+        <v>0.16567137355913583</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B114">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="12"/>
+        <v>1791</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="13"/>
+        <v>315</v>
+      </c>
+      <c r="F114">
+        <v>2106</v>
+      </c>
+      <c r="G114">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H114">
+        <v>3060</v>
+      </c>
+      <c r="I114">
+        <v>627</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="14"/>
+        <v>132765</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="14"/>
+        <v>22506</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="9"/>
+        <v>0.14494657727457155</v>
+      </c>
+      <c r="M114">
+        <v>0.16600611851783473</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B115">
+        <v>48</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="12"/>
+        <v>1838</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="13"/>
+        <v>323</v>
+      </c>
+      <c r="F115">
+        <v>2161</v>
+      </c>
+      <c r="G115">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H115">
+        <v>2153</v>
+      </c>
+      <c r="I115">
+        <v>504</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="14"/>
+        <v>135825</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="14"/>
+        <v>23133</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="9"/>
+        <v>0.1455290076624014</v>
+      </c>
+      <c r="M115">
+        <v>0.16590064342791461</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B116">
+        <v>46</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="12"/>
+        <v>1838</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="13"/>
+        <v>323</v>
+      </c>
+      <c r="F116">
+        <v>2161</v>
+      </c>
+      <c r="G116">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H116">
+        <v>3557</v>
+      </c>
+      <c r="I116">
+        <v>489</v>
+      </c>
+      <c r="J116">
+        <f t="shared" ref="J116:K131" si="16">H115+J115</f>
+        <v>137978</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="16"/>
+        <v>23637</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="9"/>
+        <v>0.14625498870773135</v>
+      </c>
+      <c r="M116">
+        <v>0.16594123922624532</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B117">
+        <v>36</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <f>D116</f>
+        <v>1838</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="13"/>
+        <v>323</v>
+      </c>
+      <c r="F117">
+        <v>2161</v>
+      </c>
+      <c r="G117">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H117">
+        <v>907</v>
+      </c>
+      <c r="I117">
+        <v>134</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="16"/>
+        <v>141535</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="16"/>
+        <v>24126</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="9"/>
+        <v>0.14563476014270105</v>
+      </c>
+      <c r="M117">
+        <v>0.16565766368004647</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B118">
+        <v>46</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="12"/>
+        <v>1897</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="13"/>
+        <v>334</v>
+      </c>
+      <c r="F118">
+        <v>2231</v>
+      </c>
+      <c r="G118">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H118">
+        <v>739</v>
+      </c>
+      <c r="I118">
+        <v>135</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="16"/>
+        <v>142442</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="16"/>
+        <v>24260</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="9"/>
+        <v>0.14552914782066201</v>
+      </c>
+      <c r="M118">
+        <v>0.16709169039048191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="12"/>
+        <v>2021</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="13"/>
+        <v>356</v>
+      </c>
+      <c r="F119">
+        <v>2377</v>
+      </c>
+      <c r="G119">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H119">
+        <v>454</v>
+      </c>
+      <c r="I119">
+        <v>115</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="16"/>
+        <v>143181</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="16"/>
+        <v>24395</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="9"/>
+        <v>0.14557573876927485</v>
+      </c>
+      <c r="M119">
+        <v>0.16712400360260768</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B120">
+        <v>44</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="12"/>
+        <v>2112</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="13"/>
+        <v>372</v>
+      </c>
+      <c r="F120">
+        <v>2484</v>
+      </c>
+      <c r="G120">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H120">
+        <v>1790</v>
+      </c>
+      <c r="I120">
+        <v>305</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="16"/>
+        <v>143635</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="16"/>
+        <v>24510</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="9"/>
+        <v>0.14576704629932499</v>
+      </c>
+      <c r="M120">
+        <v>0.16709743422408108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B121">
+        <v>38</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="12"/>
+        <v>2187</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="13"/>
+        <v>385</v>
+      </c>
+      <c r="F121">
+        <v>2572</v>
+      </c>
+      <c r="G121">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H121">
+        <v>2553</v>
+      </c>
+      <c r="I121">
+        <v>488</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="16"/>
+        <v>145425</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="16"/>
+        <v>24815</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="9"/>
+        <v>0.14576480263157895</v>
+      </c>
+      <c r="M121">
+        <v>0.1680546236988964</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B122">
+        <v>35</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="12"/>
+        <v>2270</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="13"/>
+        <v>399</v>
+      </c>
+      <c r="F122">
+        <v>2669</v>
+      </c>
+      <c r="G122">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H122">
+        <v>5492</v>
+      </c>
+      <c r="I122">
+        <v>823</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="16"/>
+        <v>147978</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="16"/>
+        <v>25303</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="9"/>
+        <v>0.14602293384733467</v>
+      </c>
+      <c r="M122">
+        <v>0.16795126669618848</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="15"/>
+        <v>127</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="12"/>
+        <v>2397</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="13"/>
+        <v>422</v>
+      </c>
+      <c r="F123">
+        <v>2819</v>
+      </c>
+      <c r="G123">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H123">
+        <v>4339</v>
+      </c>
+      <c r="I123">
+        <v>626</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="16"/>
+        <v>153470</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="16"/>
+        <v>26126</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="9"/>
+        <v>0.14547094590079956</v>
+      </c>
+      <c r="M123">
+        <v>0.1685368405758515</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <f>D123</f>
+        <v>2397</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="13"/>
+        <v>422</v>
+      </c>
+      <c r="F124">
+        <v>2819</v>
+      </c>
+      <c r="G124">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H124">
+        <v>1531</v>
+      </c>
+      <c r="I124">
+        <v>205</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="16"/>
+        <v>157809</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="16"/>
+        <v>26752</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="9"/>
+        <v>0.14494936633416594</v>
+      </c>
+      <c r="M124">
+        <v>0.16897649450681212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="15"/>
+        <v>76</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="12"/>
+        <v>2473</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="13"/>
+        <v>435</v>
+      </c>
+      <c r="F125">
+        <v>2908</v>
+      </c>
+      <c r="G125">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H125">
+        <v>1046</v>
+      </c>
+      <c r="I125">
+        <v>173</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="16"/>
+        <v>159340</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="16"/>
+        <v>26957</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="9"/>
+        <v>0.14469905580873552</v>
+      </c>
+      <c r="M125">
+        <v>0.16902337841875356</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="15"/>
+        <v>190</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="12"/>
+        <v>2663</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="13"/>
+        <v>468</v>
+      </c>
+      <c r="F126">
+        <v>3131</v>
+      </c>
+      <c r="G126">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H126">
+        <v>549</v>
+      </c>
+      <c r="I126">
+        <v>87</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="16"/>
+        <v>160386</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="16"/>
+        <v>27130</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="9"/>
+        <v>0.14468098722242367</v>
+      </c>
+      <c r="M126">
+        <v>0.1694288403795145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="12"/>
+        <v>2743</v>
+      </c>
+      <c r="E127">
+        <f>F127-D127</f>
+        <v>482</v>
+      </c>
+      <c r="F127">
+        <v>3225</v>
+      </c>
+      <c r="G127">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H127">
+        <v>2558</v>
+      </c>
+      <c r="I127">
+        <v>431</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="16"/>
+        <v>160935</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="16"/>
+        <v>27217</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="9"/>
+        <v>0.14465432203750159</v>
+      </c>
+      <c r="M127">
+        <v>0.16886879801392501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="12"/>
+        <v>2793</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="13"/>
+        <v>491</v>
+      </c>
+      <c r="F128">
+        <v>3284</v>
+      </c>
+      <c r="G128">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H128">
+        <v>4269</v>
+      </c>
+      <c r="I128">
+        <v>690</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="16"/>
+        <v>163493</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="16"/>
+        <v>27648</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="9"/>
+        <v>0.14464714530111278</v>
+      </c>
+      <c r="M128">
+        <v>0.16918290844501468</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="12"/>
+        <v>2848</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="13"/>
+        <v>501</v>
+      </c>
+      <c r="F129">
+        <v>3349</v>
+      </c>
+      <c r="G129">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H129">
+        <v>1895</v>
+      </c>
+      <c r="I129">
+        <v>242</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="16"/>
+        <v>167762</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="16"/>
+        <v>28338</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="9"/>
+        <v>0.14450790413054565</v>
+      </c>
+      <c r="M129">
+        <v>0.1700268885332305</v>
+      </c>
+      <c r="N129">
+        <f>(M129/M128)^0.2</f>
+        <v>1.0009957282553568</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="12"/>
+        <v>2913</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="13"/>
+        <v>513</v>
+      </c>
+      <c r="F130">
+        <v>3426</v>
+      </c>
+      <c r="G130">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H130">
+        <v>2555</v>
+      </c>
+      <c r="I130">
+        <v>425</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="16"/>
+        <v>169657</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="16"/>
+        <v>28580</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="9"/>
+        <v>0.14417086618542452</v>
+      </c>
+      <c r="M130">
+        <f t="shared" ref="M130:M140" si="17">M129*$N$129</f>
+        <v>0.17019618911031342</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="12"/>
+        <v>2959</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="13"/>
+        <v>521</v>
+      </c>
+      <c r="F131">
+        <v>3480</v>
+      </c>
+      <c r="G131">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H131">
+        <v>3514</v>
+      </c>
+      <c r="I131">
+        <v>558</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="16"/>
+        <v>172212</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="16"/>
+        <v>29005</v>
+      </c>
+      <c r="L131">
+        <f t="shared" ref="L131:L140" si="18">K131/(K131+J131)</f>
+        <v>0.1441478602702555</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="17"/>
+        <v>0.1703656582647646</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <f>A131+1</f>
+        <v>44205</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132:C140" si="19">D132-D131</f>
+        <v>79</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="12"/>
+        <v>3038</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="13"/>
+        <v>534</v>
+      </c>
+      <c r="F132">
+        <v>3572</v>
+      </c>
+      <c r="G132">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H132">
+        <v>2351</v>
+      </c>
+      <c r="I132">
+        <v>622</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:K140" si="20">H131+J131</f>
+        <v>175726</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="20"/>
+        <v>29563</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="18"/>
+        <v>0.14400674171533789</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="17"/>
+        <v>0.1705352961644413</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <f>A132+1</f>
+        <v>44206</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="19"/>
+        <v>83</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="12"/>
+        <v>3121</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="13"/>
+        <v>549</v>
+      </c>
+      <c r="F133">
+        <v>3670</v>
+      </c>
+      <c r="G133">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H133">
+        <v>732</v>
+      </c>
+      <c r="I133">
+        <v>128</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="20"/>
+        <v>178077</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="20"/>
+        <v>30185</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="18"/>
+        <v>0.14493762664336268</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="17"/>
+        <v>0.17070510297736788</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <f>A133+1</f>
+        <v>44207</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="19"/>
+        <v>85</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="12"/>
+        <v>3206</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="13"/>
+        <v>564</v>
+      </c>
+      <c r="F134">
+        <v>3770</v>
+      </c>
+      <c r="G134">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H134">
+        <v>2037</v>
+      </c>
+      <c r="I134">
+        <v>373</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="20"/>
+        <v>178809</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="20"/>
+        <v>30313</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="18"/>
+        <v>0.14495366341178834</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="17"/>
+        <v>0.17087507887173603</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <f>A134+1</f>
+        <v>44208</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="12"/>
+        <v>3265</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="13"/>
+        <v>574</v>
+      </c>
+      <c r="F135">
+        <v>3839</v>
+      </c>
+      <c r="G135">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H135">
+        <v>3073</v>
+      </c>
+      <c r="I135">
+        <v>503</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="20"/>
+        <v>180846</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="20"/>
+        <v>30686</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="18"/>
+        <v>0.14506552200139933</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="17"/>
+        <v>0.17104522401590494</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <f>A135+1</f>
+        <v>44209</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="19"/>
+        <v>91</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="12"/>
+        <v>3356</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="13"/>
+        <v>590</v>
+      </c>
+      <c r="F136">
+        <v>3946</v>
+      </c>
+      <c r="G136">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H136">
+        <v>2466</v>
+      </c>
+      <c r="I136">
+        <v>457</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="20"/>
+        <v>183919</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="20"/>
+        <v>31189</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="18"/>
+        <v>0.14499228294624095</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="17"/>
+        <v>0.17121553857840141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <f>1+A136</f>
+        <v>44210</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="12"/>
+        <v>3456</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="13"/>
+        <v>608</v>
+      </c>
+      <c r="F137">
+        <v>4064</v>
+      </c>
+      <c r="G137">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H137">
+        <v>2192</v>
+      </c>
+      <c r="I137">
+        <v>537</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="20"/>
+        <v>186385</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="20"/>
+        <v>31646</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="18"/>
+        <v>0.14514449780077146</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="17"/>
+        <v>0.17138602272792006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <f t="shared" ref="A138:A140" si="21">1+A137</f>
+        <v>44211</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="12"/>
+        <v>3506</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="13"/>
+        <v>617</v>
+      </c>
+      <c r="F138">
+        <v>4123</v>
+      </c>
+      <c r="G138">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H138">
+        <v>1685</v>
+      </c>
+      <c r="I138">
+        <v>360</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="20"/>
+        <v>188577</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="20"/>
+        <v>32183</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="18"/>
+        <v>0.14578275049827868</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="17"/>
+        <v>0.17155667663332347</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <f t="shared" si="21"/>
+        <v>44212</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="19"/>
+        <v>70</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="12"/>
+        <v>3576</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="13"/>
+        <v>629</v>
+      </c>
+      <c r="F139">
+        <v>4205</v>
+      </c>
+      <c r="G139">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H139">
+        <v>887</v>
+      </c>
+      <c r="I139">
+        <v>173</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="20"/>
+        <v>190262</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="20"/>
+        <v>32543</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="18"/>
+        <v>0.14606045645295213</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="17"/>
+        <v>0.17172750046364238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <f t="shared" si="21"/>
+        <v>44213</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="19"/>
+        <v>62</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="12"/>
+        <v>3638</v>
+      </c>
+      <c r="E140">
+        <f>F140-D140</f>
+        <v>640</v>
+      </c>
+      <c r="F140">
+        <v>4278</v>
+      </c>
+      <c r="G140">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="H140">
+        <v>474</v>
+      </c>
+      <c r="I140">
+        <v>99</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="20"/>
+        <v>191149</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="20"/>
+        <v>32716</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="18"/>
+        <v>0.1461416478681348</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="17"/>
+        <v>0.17189849438807581</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <f t="shared" ref="B141:B145" si="22">D141-D140</f>
+        <v>117</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ref="C141:C145" si="23">E141-E140</f>
+        <v>21</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ref="D141:D145" si="24">ROUND(G141*F141,0)</f>
+        <v>3755</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ref="E141:E145" si="25">F141-D141</f>
+        <v>661</v>
+      </c>
+      <c r="F141">
+        <v>4416</v>
+      </c>
+      <c r="G141">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="24"/>
+        <v>3846</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="25"/>
+        <v>677</v>
+      </c>
+      <c r="F142">
+        <v>4523</v>
+      </c>
+      <c r="G142">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <f t="shared" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="24"/>
+        <v>3923</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="25"/>
+        <v>690</v>
+      </c>
+      <c r="F143">
+        <v>4613</v>
+      </c>
+      <c r="G143">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <f t="shared" si="22"/>
+        <v>93</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="24"/>
+        <v>4016</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="25"/>
+        <v>706</v>
+      </c>
+      <c r="F144">
+        <v>4722</v>
+      </c>
+      <c r="G144">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <f t="shared" si="22"/>
+        <v>80</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="24"/>
+        <v>4096</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="25"/>
+        <v>720</v>
+      </c>
+      <c r="F145">
+        <v>4816</v>
+      </c>
+      <c r="G145">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SEIR_2_wave/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/data/age_deaths_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA3198-854C-4BB7-84A0-C7A135AFBEDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A250BF30-B78B-4A0F-9825-2DD21589CAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8656,10 +8656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FFB7CF-60C4-4633-A46C-C73CF58CEDF4}">
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G145" sqref="B1:G145"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12944,7 +12944,7 @@
         <v>1027</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95:E140" si="13">F95-D95</f>
+        <f t="shared" ref="E95:E139" si="13">F95-D95</f>
         <v>181</v>
       </c>
       <c r="F95">
@@ -14959,7 +14959,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <f t="shared" ref="A138:A140" si="21">1+A137</f>
+        <f t="shared" ref="A138:A160" si="21">1+A137</f>
         <v>44211</v>
       </c>
       <c r="B138">
@@ -15108,6 +15108,10 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <f t="shared" si="21"/>
+        <v>44214</v>
+      </c>
       <c r="B141">
         <f t="shared" ref="B141:B145" si="22">D141-D140</f>
         <v>117</v>
@@ -15132,6 +15136,10 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <f t="shared" si="21"/>
+        <v>44215</v>
+      </c>
       <c r="B142">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -15156,6 +15164,10 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <f t="shared" si="21"/>
+        <v>44216</v>
+      </c>
       <c r="B143">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -15180,6 +15192,10 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <f t="shared" si="21"/>
+        <v>44217</v>
+      </c>
       <c r="B144">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -15203,7 +15219,11 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <f t="shared" si="21"/>
+        <v>44218</v>
+      </c>
       <c r="B145">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -15224,6 +15244,426 @@
         <v>4816</v>
       </c>
       <c r="G145">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <f t="shared" si="21"/>
+        <v>44219</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ref="B146:B160" si="26">D146-D145</f>
+        <v>109</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ref="C146:C160" si="27">E146-E145</f>
+        <v>20</v>
+      </c>
+      <c r="D146">
+        <f t="shared" ref="D146:D160" si="28">ROUND(G146*F146,0)</f>
+        <v>4205</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ref="E146:E160" si="29">F146-D146</f>
+        <v>740</v>
+      </c>
+      <c r="F146">
+        <v>4945</v>
+      </c>
+      <c r="G146">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <f t="shared" si="21"/>
+        <v>44220</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="28"/>
+        <v>4205</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="29"/>
+        <v>740</v>
+      </c>
+      <c r="F147">
+        <v>4945</v>
+      </c>
+      <c r="G147">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <f t="shared" si="21"/>
+        <v>44221</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="26"/>
+        <v>187</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="28"/>
+        <v>4392</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="29"/>
+        <v>772</v>
+      </c>
+      <c r="F148">
+        <v>5164</v>
+      </c>
+      <c r="G148">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <f t="shared" si="21"/>
+        <v>44222</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="26"/>
+        <v>105</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="27"/>
+        <v>19</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="28"/>
+        <v>4497</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="29"/>
+        <v>791</v>
+      </c>
+      <c r="F149">
+        <v>5288</v>
+      </c>
+      <c r="G149">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <f t="shared" si="21"/>
+        <v>44223</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="26"/>
+        <v>59</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="28"/>
+        <v>4556</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="29"/>
+        <v>801</v>
+      </c>
+      <c r="F150">
+        <v>5357</v>
+      </c>
+      <c r="G150">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <f t="shared" si="21"/>
+        <v>44224</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="26"/>
+        <v>94</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="27"/>
+        <v>17</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="28"/>
+        <v>4650</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="29"/>
+        <v>818</v>
+      </c>
+      <c r="F151">
+        <v>5468</v>
+      </c>
+      <c r="G151">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <f t="shared" si="21"/>
+        <v>44225</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="26"/>
+        <v>79</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="28"/>
+        <v>4729</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="29"/>
+        <v>832</v>
+      </c>
+      <c r="F152">
+        <v>5561</v>
+      </c>
+      <c r="G152">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <f t="shared" si="21"/>
+        <v>44226</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="26"/>
+        <v>89</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="28"/>
+        <v>4818</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="29"/>
+        <v>847</v>
+      </c>
+      <c r="F153">
+        <v>5665</v>
+      </c>
+      <c r="G153">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <f t="shared" si="21"/>
+        <v>44227</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="26"/>
+        <v>68</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="28"/>
+        <v>4886</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="29"/>
+        <v>860</v>
+      </c>
+      <c r="F154">
+        <v>5746</v>
+      </c>
+      <c r="G154">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <f t="shared" si="21"/>
+        <v>44228</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="26"/>
+        <v>97</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="28"/>
+        <v>4983</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="29"/>
+        <v>876</v>
+      </c>
+      <c r="F155">
+        <v>5859</v>
+      </c>
+      <c r="G155">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <f t="shared" si="21"/>
+        <v>44229</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="26"/>
+        <v>95</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="27"/>
+        <v>17</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="28"/>
+        <v>5078</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="29"/>
+        <v>893</v>
+      </c>
+      <c r="F156">
+        <v>5971</v>
+      </c>
+      <c r="G156">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <f t="shared" si="21"/>
+        <v>44230</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="26"/>
+        <v>78</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="28"/>
+        <v>5156</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="29"/>
+        <v>907</v>
+      </c>
+      <c r="F157">
+        <v>6063</v>
+      </c>
+      <c r="G157">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <f t="shared" si="21"/>
+        <v>44231</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="26"/>
+        <v>65</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="28"/>
+        <v>5221</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="29"/>
+        <v>918</v>
+      </c>
+      <c r="F158">
+        <v>6139</v>
+      </c>
+      <c r="G158">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <f t="shared" si="21"/>
+        <v>44232</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="26"/>
+        <v>95</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="27"/>
+        <v>17</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="28"/>
+        <v>5316</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="29"/>
+        <v>935</v>
+      </c>
+      <c r="F159">
+        <v>6251</v>
+      </c>
+      <c r="G159">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <f t="shared" si="21"/>
+        <v>44233</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="26"/>
+        <v>81</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="28"/>
+        <v>5397</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="29"/>
+        <v>949</v>
+      </c>
+      <c r="F160">
+        <v>6346</v>
+      </c>
+      <c r="G160">
         <v>0.85040797824116043</v>
       </c>
     </row>

--- a/SEIR_2_wave/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/data/age_deaths_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A250BF30-B78B-4A0F-9825-2DD21589CAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B6F6DA-70E4-4181-B582-8E5CF5319D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8656,10 +8656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FFB7CF-60C4-4633-A46C-C73CF58CEDF4}">
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:E160"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="G166" sqref="A157:G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15219,7 +15219,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <f t="shared" si="21"/>
         <v>44218</v>
@@ -15247,7 +15247,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <f t="shared" si="21"/>
         <v>44219</v>
@@ -15275,7 +15275,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <f t="shared" si="21"/>
         <v>44220</v>
@@ -15303,7 +15303,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <f t="shared" si="21"/>
         <v>44221</v>
@@ -15331,7 +15331,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <f t="shared" si="21"/>
         <v>44222</v>
@@ -15359,7 +15359,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <f t="shared" si="21"/>
         <v>44223</v>
@@ -15387,7 +15387,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <f t="shared" si="21"/>
         <v>44224</v>
@@ -15415,7 +15415,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <f t="shared" si="21"/>
         <v>44225</v>
@@ -15443,7 +15443,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <f t="shared" si="21"/>
         <v>44226</v>
@@ -15471,7 +15471,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <f t="shared" si="21"/>
         <v>44227</v>
@@ -15499,7 +15499,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <f t="shared" si="21"/>
         <v>44228</v>
@@ -15527,7 +15527,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <f t="shared" si="21"/>
         <v>44229</v>
@@ -15554,8 +15554,9 @@
       <c r="G156">
         <v>0.85040797824116043</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <f t="shared" si="21"/>
         <v>44230</v>
@@ -15582,8 +15583,9 @@
       <c r="G157">
         <v>0.85040797824116043</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <f t="shared" si="21"/>
         <v>44231</v>
@@ -15610,8 +15612,9 @@
       <c r="G158">
         <v>0.85040797824116043</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <f t="shared" si="21"/>
         <v>44232</v>
@@ -15638,8 +15641,9 @@
       <c r="G159">
         <v>0.85040797824116043</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <f t="shared" si="21"/>
         <v>44233</v>
@@ -15666,6 +15670,181 @@
       <c r="G160">
         <v>0.85040797824116043</v>
       </c>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <f>A160+1</f>
+        <v>44234</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ref="B161:B166" si="30">D161-D160</f>
+        <v>65</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ref="C161:C166" si="31">E161-E160</f>
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <f t="shared" ref="D161:D166" si="32">ROUND(G161*F161,0)</f>
+        <v>5462</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ref="E161:E166" si="33">F161-D161</f>
+        <v>961</v>
+      </c>
+      <c r="F161">
+        <v>6423</v>
+      </c>
+      <c r="G161">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <f t="shared" ref="A162:A166" si="34">A161+1</f>
+        <v>44235</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="30"/>
+        <v>109</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="32"/>
+        <v>5571</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="33"/>
+        <v>980</v>
+      </c>
+      <c r="F162">
+        <v>6551</v>
+      </c>
+      <c r="G162">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <f t="shared" si="34"/>
+        <v>44236</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="30"/>
+        <v>116</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="31"/>
+        <v>20</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="32"/>
+        <v>5687</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="33"/>
+        <v>1000</v>
+      </c>
+      <c r="F163">
+        <v>6687</v>
+      </c>
+      <c r="G163">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <f t="shared" si="34"/>
+        <v>44237</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="30"/>
+        <v>114</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="31"/>
+        <v>21</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="32"/>
+        <v>5801</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="33"/>
+        <v>1021</v>
+      </c>
+      <c r="F164">
+        <v>6822</v>
+      </c>
+      <c r="G164">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <f t="shared" si="34"/>
+        <v>44238</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="30"/>
+        <v>96</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="31"/>
+        <v>16</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="32"/>
+        <v>5897</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="33"/>
+        <v>1037</v>
+      </c>
+      <c r="F165">
+        <v>6934</v>
+      </c>
+      <c r="G165">
+        <v>0.85040797824116043</v>
+      </c>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <f t="shared" si="34"/>
+        <v>44239</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="32"/>
+        <v>5966</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="33"/>
+        <v>1050</v>
+      </c>
+      <c r="F166">
+        <v>7016</v>
+      </c>
+      <c r="G166">
+        <v>0.85040797824115999</v>
+      </c>
+      <c r="I166" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SEIR_2_wave/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/data/age_deaths_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B6F6DA-70E4-4181-B582-8E5CF5319D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC254BB-B177-4DCD-B4DF-48E6E636CE10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="12120" windowHeight="9684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_deaths_cases" sheetId="1" r:id="rId1"/>
@@ -2143,13 +2143,13 @@
       <selection activeCell="A138" sqref="A1:N140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44075</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0.11009401286491836</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44076</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0.12014652014652015</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44077</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0.14231499051233396</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44078</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0.14036296806799908</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44079</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0.13649268399213801</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44080</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0.13584743946860939</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44081</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>0.13584986137769248</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44082</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0.13493723849372385</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44083</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0.13296903460837886</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44084</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>0.13264309435436608</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44085</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0.13006597549481622</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44086</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>0.13022157646204141</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44087</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>0.12945389435989257</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44088</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0.13455934905712244</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44089</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0.14544052438789282</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44090</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0.17394054395951927</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44091</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0.16775086427638913</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44092</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>0.16188667171160556</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44093</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0.16054697391744746</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44094</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0.16054983617363658</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44095</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>0.15790527908840027</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44096</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>0.155130540376442</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44097</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0.15386598945106467</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44098</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>0.15087653157398681</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44099</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>0.15105702869596804</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44100</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0.15016651745747539</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44101</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0.14930573685181509</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44102</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0.15458343732679011</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44103</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>0.1586686195112145</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44104</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0.15888942041861073</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44105</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0.15448169281978125</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44106</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0.15798449500525574</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44107</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0.15424807611274977</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44108</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0.15223129051885109</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44109</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0.15690029591447119</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44110</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0.1549121369389056</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44111</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0.15641922676386358</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44112</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0.15708087830168513</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44113</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0.159854199792511</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44114</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0.15428211586901763</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44115</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0.15484407126617936</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44116</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0.15430767632699699</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44117</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>0.15800237301120176</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44118</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0.15842879711499491</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44119</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0.15494034671412563</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44120</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0.15525186796292453</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44121</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0.15135583166971356</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44122</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0.15294610037485898</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44123</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0.15438345955042673</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44124</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>0.1544678169150743</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44125</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>0.15102947700405975</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44126</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0.14893989219503317</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44127</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0.15171969528687723</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44128</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0.15281860037183218</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44129</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0.15356185863185534</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44130</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>0.15367830984622616</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44131</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0.1538806295270666</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44132</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0.15542181625416374</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44133</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>0.15294521955848422</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44134</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0.1501902638161951</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44135</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>0.14964098772985282</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44136</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>0.14918856510992584</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44137</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0.14875104653504168</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44138</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>0.14967107878942099</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44139</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>0.14897760937385884</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44140</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0.14652076403209055</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44141</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>0.14437654689882529</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44142</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>0.14470677431021992</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44143</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0.1460759063342941</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44144</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0.14660850094652128</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44145</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>0.14724931053422546</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44146</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0.14888861779468462</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44147</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>0.15127306974962609</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44148</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0.15030995107796286</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44149</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0.15076211535092912</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44150</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>0.14937639612371184</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44151</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>0.14897628227278345</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44152</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>0.14910677366817718</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44153</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>0.14946242989152678</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44154</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0.14947572695376971</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44155</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>0.15052182995427557</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44156</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>0.15059041643559715</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44157</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>0.15041160087859595</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44158</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>0.15103356829411563</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44159</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>0.1521452475352737</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44160</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>0.15263639302005627</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44161</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>0.15347622355487198</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44162</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0.15423503439204539</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44163</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>0.15466620594333103</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44164</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>0.15577404645715362</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44165</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>0.15681844008764481</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44166</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>0.1582484536666833</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44167</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>0.15867712926716004</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44168</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.15834516245390842</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44169</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0.15904506920559128</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44170</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0.15989913513309881</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44171</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>0.16011825548634165</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44172</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>0.15956835961068602</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44173</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>0.16018450231985759</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44174</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>0.16136392231469618</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44175</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>0.1617853133985388</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44176</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0.16328250015768869</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44177</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0.16330687512829012</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44178</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>0.16327251455677344</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44179</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>0.16326032424924683</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44180</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0.16444690125040365</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44181</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0.16405887501054986</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44182</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>0.16512175822283046</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44183</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>0.16383115999823236</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44184</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>0.16524989885916416</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44185</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>0.16492236735728699</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44186</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0.16567137355913583</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44187</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>0.16600611851783473</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44188</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.16590064342791461</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44189</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>0.16594123922624532</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44190</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>0.16565766368004647</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44191</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>0.16709169039048191</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44192</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>0.16712400360260768</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44193</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>0.16709743422408108</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44194</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0.1680546236988964</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44195</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>0.16795126669618848</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44196</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>0.1685368405758515</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44197</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0.16897649450681212</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44198</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0.16902337841875356</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44199</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>0.1694288403795145</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44200</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>0.16886879801392501</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44201</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>0.16918290844501468</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44202</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>1.0009957282553568</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44203</v>
       </c>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44204</v>
       </c>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f>A131+1</f>
         <v>44205</v>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f>A132+1</f>
         <v>44206</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f>A133+1</f>
         <v>44207</v>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f>A134+1</f>
         <v>44208</v>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f>A135+1</f>
         <v>44209</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f>1+A136</f>
         <v>44210</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" ref="A138:A140" si="30">1+A137</f>
         <v>44211</v>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" si="30"/>
         <v>44212</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" si="30"/>
         <v>44213</v>
@@ -8656,18 +8656,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FFB7CF-60C4-4633-A46C-C73CF58CEDF4}">
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="G166" sqref="A157:G166"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167:C173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -8706,7 +8706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44075</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>0.11009401286491836</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44076</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0.12014652014652015</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44077</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>0.14231499051233396</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44078</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>0.14036296806799908</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44079</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>0.13649268399213801</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44080</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0.13584743946860939</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44081</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>0.13584986137769248</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44082</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>0.13493723849372385</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44083</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>0.13296903460837886</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44084</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>0.13264309435436608</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44085</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>0.13006597549481622</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44086</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0.13022157646204141</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44087</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>0.12945389435989257</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44088</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0.13455934905712244</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44089</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>0.14544052438789282</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44090</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0.17394054395951927</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44091</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>0.16775086427638913</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44092</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>0.16188667171160556</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44093</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>0.16054697391744746</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44094</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>0.16054983617363658</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44095</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>0.15790527908840027</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44096</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>0.155130540376442</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44097</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>0.15386598945106467</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44098</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>0.15087653157398681</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44099</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>0.15105702869596804</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44100</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>0.15016651745747539</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44101</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>0.14930573685181509</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44102</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>0.15458343732679011</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44103</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>0.1586686195112145</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44104</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.15888942041861073</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44105</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>0.15448169281978125</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44106</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>0.15798449500525574</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44107</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>0.15424807611274977</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44108</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>0.15223129051885109</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44109</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>0.15690029591447119</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44110</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>0.1549121369389056</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44111</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>0.15641922676386358</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44112</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>0.15708087830168513</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44113</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>0.159854199792511</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44114</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>0.15428211586901763</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44115</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>0.15484407126617936</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44116</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>0.15430767632699699</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44117</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>0.15800237301120176</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44118</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>0.15842879711499491</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44119</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>0.15494034671412563</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44120</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>0.15525186796292453</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44121</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>0.15135583166971356</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44122</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>0.15294610037485898</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44123</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>0.15438345955042673</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44124</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>0.1544678169150743</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44125</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>0.15102947700405975</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44126</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>0.14893989219503317</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44127</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>0.15171969528687723</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44128</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>0.15281860037183218</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44129</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>0.15356185863185534</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44130</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>0.15367830984622616</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44131</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>0.1538806295270666</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44132</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>0.15542181625416374</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44133</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>0.15294521955848422</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44134</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>0.1501902638161951</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44135</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>0.14964098772985282</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44136</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>0.14918856510992584</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44137</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>0.14875104653504168</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44138</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>0.14967107878942099</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44139</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>0.14897760937385884</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44140</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>0.14652076403209055</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44141</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>0.14437654689882529</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44142</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>0.14470677431021992</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44143</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>0.1460759063342941</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44144</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>0.14660850094652128</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44145</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>0.14724931053422546</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44146</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>0.14888861779468462</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44147</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>0.15127306974962609</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44148</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>0.15030995107796286</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44149</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>0.15076211535092912</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44150</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>0.14937639612371184</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44151</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>0.14897628227278345</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44152</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>0.14910677366817718</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44153</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>0.14946242989152678</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44154</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0.14947572695376971</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44155</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>0.15052182995427557</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44156</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>0.15059041643559715</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44157</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>0.15041160087859595</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44158</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>0.15103356829411563</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44159</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>0.1521452475352737</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44160</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>0.15263639302005627</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44161</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>0.15347622355487198</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44162</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>0.15423503439204539</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44163</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>0.15466620594333103</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44164</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>0.15577404645715362</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44165</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>0.15681844008764481</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44166</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>0.1582484536666833</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44167</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>0.15867712926716004</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44168</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>0.15834516245390842</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44169</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>0.15904506920559128</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44170</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>0.15989913513309881</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44171</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>0.16011825548634165</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44172</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>0.15956835961068602</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44173</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>0.16018450231985759</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44174</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>0.16136392231469618</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44175</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>0.1617853133985388</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44176</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>0.16328250015768869</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44177</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>0.16330687512829012</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44178</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>0.16327251455677344</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44179</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>0.16326032424924683</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44180</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>0.16444690125040365</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44181</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>0.16405887501054986</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44182</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>0.16512175822283046</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44183</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>0.16383115999823236</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44184</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>0.16524989885916416</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44185</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>0.16492236735728699</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44186</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>0.16567137355913583</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44187</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>0.16600611851783473</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44188</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>0.16590064342791461</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44189</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>0.16594123922624532</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44190</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>0.16565766368004647</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44191</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>0.16709169039048191</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44192</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>0.16712400360260768</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44193</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>0.16709743422408108</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44194</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>0.1680546236988964</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44195</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>0.16795126669618848</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44196</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>0.1685368405758515</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44197</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>0.16897649450681212</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44198</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>0.16902337841875356</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44199</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>0.1694288403795145</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44200</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>0.16886879801392501</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44201</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>0.16918290844501468</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44202</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>1.0009957282553568</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44203</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>0.17019618911031342</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44204</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>0.1703656582647646</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f>A131+1</f>
         <v>44205</v>
@@ -14707,7 +14707,7 @@
         <v>0.1705352961644413</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f>A132+1</f>
         <v>44206</v>
@@ -14757,7 +14757,7 @@
         <v>0.17070510297736788</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f>A133+1</f>
         <v>44207</v>
@@ -14807,7 +14807,7 @@
         <v>0.17087507887173603</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f>A134+1</f>
         <v>44208</v>
@@ -14857,7 +14857,7 @@
         <v>0.17104522401590494</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f>A135+1</f>
         <v>44209</v>
@@ -14907,7 +14907,7 @@
         <v>0.17121553857840141</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f>1+A136</f>
         <v>44210</v>
@@ -14957,7 +14957,7 @@
         <v>0.17138602272792006</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" ref="A138:A160" si="21">1+A137</f>
         <v>44211</v>
@@ -15007,7 +15007,7 @@
         <v>0.17155667663332347</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" si="21"/>
         <v>44212</v>
@@ -15057,7 +15057,7 @@
         <v>0.17172750046364238</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" si="21"/>
         <v>44213</v>
@@ -15107,7 +15107,7 @@
         <v>0.17189849438807581</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" si="21"/>
         <v>44214</v>
@@ -15135,7 +15135,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" si="21"/>
         <v>44215</v>
@@ -15163,7 +15163,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" si="21"/>
         <v>44216</v>
@@ -15191,7 +15191,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" si="21"/>
         <v>44217</v>
@@ -15219,7 +15219,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" si="21"/>
         <v>44218</v>
@@ -15247,7 +15247,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" si="21"/>
         <v>44219</v>
@@ -15275,7 +15275,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" si="21"/>
         <v>44220</v>
@@ -15303,7 +15303,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" si="21"/>
         <v>44221</v>
@@ -15331,7 +15331,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" si="21"/>
         <v>44222</v>
@@ -15359,7 +15359,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" si="21"/>
         <v>44223</v>
@@ -15387,7 +15387,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" si="21"/>
         <v>44224</v>
@@ -15415,7 +15415,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" si="21"/>
         <v>44225</v>
@@ -15443,7 +15443,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" si="21"/>
         <v>44226</v>
@@ -15471,7 +15471,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" si="21"/>
         <v>44227</v>
@@ -15499,7 +15499,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" si="21"/>
         <v>44228</v>
@@ -15527,7 +15527,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" si="21"/>
         <v>44229</v>
@@ -15556,7 +15556,7 @@
       </c>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" si="21"/>
         <v>44230</v>
@@ -15585,7 +15585,7 @@
       </c>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" si="21"/>
         <v>44231</v>
@@ -15614,7 +15614,7 @@
       </c>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" si="21"/>
         <v>44232</v>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" si="21"/>
         <v>44233</v>
@@ -15672,7 +15672,7 @@
       </c>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f>A160+1</f>
         <v>44234</v>
@@ -15686,11 +15686,11 @@
         <v>12</v>
       </c>
       <c r="D161">
-        <f t="shared" ref="D161:D166" si="32">ROUND(G161*F161,0)</f>
+        <f t="shared" ref="D161:D173" si="32">ROUND(G161*F161,0)</f>
         <v>5462</v>
       </c>
       <c r="E161">
-        <f t="shared" ref="E161:E166" si="33">F161-D161</f>
+        <f t="shared" ref="E161:E173" si="33">F161-D161</f>
         <v>961</v>
       </c>
       <c r="F161">
@@ -15701,9 +15701,9 @@
       </c>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <f t="shared" ref="A162:A166" si="34">A161+1</f>
+        <f t="shared" ref="A162:A173" si="34">A161+1</f>
         <v>44235</v>
       </c>
       <c r="B162">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" si="34"/>
         <v>44236</v>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" si="34"/>
         <v>44237</v>
@@ -15788,7 +15788,7 @@
       </c>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" si="34"/>
         <v>44238</v>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" si="34"/>
         <v>44239</v>
@@ -15845,6 +15845,202 @@
         <v>0.85040797824115999</v>
       </c>
       <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <f t="shared" si="34"/>
+        <v>44240</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ref="B167:B173" si="35">D167-D166</f>
+        <v>75</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ref="C167:C173" si="36">E167-E166</f>
+        <v>13</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="32"/>
+        <v>6041</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="33"/>
+        <v>1063</v>
+      </c>
+      <c r="F167">
+        <v>7104</v>
+      </c>
+      <c r="G167">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <f t="shared" si="34"/>
+        <v>44241</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="35"/>
+        <v>66</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="36"/>
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="32"/>
+        <v>6107</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="33"/>
+        <v>1074</v>
+      </c>
+      <c r="F168">
+        <v>7181</v>
+      </c>
+      <c r="G168">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <f t="shared" si="34"/>
+        <v>44242</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="35"/>
+        <v>109</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="36"/>
+        <v>19</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="32"/>
+        <v>6216</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="33"/>
+        <v>1093</v>
+      </c>
+      <c r="F169">
+        <v>7309</v>
+      </c>
+      <c r="G169">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <f t="shared" si="34"/>
+        <v>44243</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="35"/>
+        <v>95</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="36"/>
+        <v>17</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="32"/>
+        <v>6311</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="33"/>
+        <v>1110</v>
+      </c>
+      <c r="F170">
+        <v>7421</v>
+      </c>
+      <c r="G170">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <f t="shared" si="34"/>
+        <v>44244</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="36"/>
+        <v>18</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="32"/>
+        <v>6411</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="33"/>
+        <v>1128</v>
+      </c>
+      <c r="F171">
+        <v>7539</v>
+      </c>
+      <c r="G171">
+        <v>0.85040797824116043</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <f t="shared" si="34"/>
+        <v>44245</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="35"/>
+        <v>71</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="36"/>
+        <v>12</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="32"/>
+        <v>6482</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="33"/>
+        <v>1140</v>
+      </c>
+      <c r="F172">
+        <v>7622</v>
+      </c>
+      <c r="G172">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <f t="shared" si="34"/>
+        <v>44246</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="35"/>
+        <v>70</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="36"/>
+        <v>13</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="32"/>
+        <v>6552</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="33"/>
+        <v>1153</v>
+      </c>
+      <c r="F173">
+        <v>7705</v>
+      </c>
+      <c r="G173">
+        <v>0.85040797824115999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
